--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -441,97 +441,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -548,79 +548,79 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>M1</t>
@@ -628,22 +628,22 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -660,57 +660,57 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -720,37 +720,37 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -772,79 +772,79 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>O</t>
@@ -857,7 +857,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -869,102 +869,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>P3</t>
         </is>
       </c>
     </row>
@@ -976,102 +976,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -1083,102 +1083,102 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -1195,97 +1195,97 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1327,72 +1327,72 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -1404,102 +1404,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1536,37 +1536,37 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1576,22 +1576,22 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -1618,32 +1618,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1673,42 +1673,42 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>OB</t>
@@ -1755,39 +1755,39 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>N1</t>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1805,22 +1805,22 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1852,82 +1852,82 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1939,102 +1939,102 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -2046,87 +2046,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2153,102 +2153,102 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -2260,102 +2260,102 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2417,52 +2417,52 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -2474,17 +2474,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2494,82 +2494,82 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2581,102 +2581,102 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
     </row>
@@ -2693,37 +2693,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -2800,17 +2800,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2820,77 +2820,77 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2902,102 +2902,102 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3009,22 +3009,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3034,22 +3034,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3059,52 +3059,52 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -3116,102 +3116,102 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3228,97 +3228,97 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -3330,97 +3330,97 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>C4</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>P4</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3437,102 +3437,102 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -3584,22 +3584,22 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3676,54 +3676,54 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
           <t>M1</t>
@@ -3731,22 +3731,22 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P4</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3768,59 +3768,59 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>M1</t>
@@ -3833,27 +3833,27 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3865,102 +3865,102 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3972,12 +3972,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3987,87 +3987,87 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2375886524822695</v>
+        <v>0.2393617021276596</v>
       </c>
     </row>
     <row r="8">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2245430809399478</v>
+        <v>0.1540469973890339</v>
       </c>
     </row>
     <row r="9">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.002816901408450704</v>
       </c>
     </row>
     <row r="10">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.03731343283582089</v>
       </c>
     </row>
     <row r="11">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06106870229007633</v>
+        <v>0.07824427480916031</v>
       </c>
     </row>
     <row r="12">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01821493624772313</v>
       </c>
     </row>
     <row r="13">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03720930232558139</v>
+        <v>0.03255813953488372</v>
       </c>
     </row>
     <row r="24">
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0410958904109589</v>
+        <v>0.0365296803652968</v>
       </c>
     </row>
     <row r="25">
@@ -4774,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="8">
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="18">
@@ -5058,19 +5058,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -5218,19 +5218,19 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5298,16 +5298,16 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -5698,19 +5698,19 @@
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -5858,19 +5858,19 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6098,19 +6098,19 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -6255,16 +6255,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -6498,19 +6498,19 @@
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -6581,13 +6581,13 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -6657,22 +6657,22 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41</v>
+      </c>
+      <c r="L22" t="n">
         <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>32</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -6705,16 +6705,16 @@
         <v>8</v>
       </c>
       <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
         <v>8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6761,27 +6761,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6793,27 +6793,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -6835,17 +6835,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -6857,27 +6857,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -6889,17 +6889,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6931,17 +6931,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6953,27 +6953,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6985,27 +6985,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7049,17 +7049,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7081,27 +7081,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7113,27 +7113,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7160,12 +7160,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7177,27 +7177,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7209,27 +7209,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7305,14 +7305,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>['13:00']</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>['12:30']</t>
@@ -7320,12 +7320,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7337,27 +7337,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7369,27 +7369,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -7433,12 +7433,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7465,27 +7465,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7497,27 +7497,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7529,27 +7529,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7561,27 +7561,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7593,17 +7593,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7657,27 +7657,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>['13:30']</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7694,12 +7694,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7731,17 +7731,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7753,27 +7753,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7795,17 +7795,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7817,27 +7817,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -441,97 +441,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -548,102 +548,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -675,44 +675,44 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>O</t>
@@ -720,37 +720,37 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -772,92 +772,92 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>W6</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>A5</t>
         </is>
       </c>
     </row>
@@ -869,102 +869,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -976,102 +976,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1123,62 +1123,62 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1195,97 +1195,97 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1327,72 +1327,72 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
     </row>
@@ -1404,102 +1404,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>C3</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>OB</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1526,72 +1526,72 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -1618,97 +1618,97 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>OB</t>
@@ -1755,49 +1755,49 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>M1</t>
@@ -1805,22 +1805,22 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1837,97 +1837,97 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -1939,102 +1939,102 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2046,27 +2046,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2076,57 +2076,57 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>W6</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2153,102 +2153,102 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -2260,102 +2260,102 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2417,52 +2417,52 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2474,17 +2474,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2494,82 +2494,82 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -2581,102 +2581,102 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>C3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>OB</t>
         </is>
       </c>
     </row>
@@ -2693,37 +2693,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2800,17 +2800,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2820,77 +2820,77 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2912,92 +2912,92 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -3009,22 +3009,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3034,22 +3034,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3059,52 +3059,52 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3116,102 +3116,102 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3228,12 +3228,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3248,77 +3248,77 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3330,27 +3330,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3360,67 +3360,67 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>P4</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>C4</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3437,102 +3437,102 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
     </row>
@@ -3584,29 +3584,29 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="O31" t="inlineStr">
         <is>
           <t>O</t>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3676,52 +3676,52 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3731,22 +3731,22 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3758,102 +3758,102 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3895,72 +3895,72 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3972,102 +3972,102 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2393617021276596</v>
+        <v>0.2375886524822695</v>
       </c>
     </row>
     <row r="8">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1540469973890339</v>
+        <v>0.2245430809399478</v>
       </c>
     </row>
     <row r="9">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002816901408450704</v>
+        <v>0.02816901408450704</v>
       </c>
     </row>
     <row r="10">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03731343283582089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07824427480916031</v>
+        <v>0.06106870229007633</v>
       </c>
     </row>
     <row r="12">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01821493624772313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03255813953488372</v>
+        <v>0.03720930232558139</v>
       </c>
     </row>
     <row r="24">
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0365296803652968</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="25">
@@ -4774,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="8">
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02182539682539682</v>
       </c>
     </row>
     <row r="18">
@@ -5058,19 +5058,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -5218,19 +5218,19 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5298,16 +5298,16 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -5698,19 +5698,19 @@
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -5858,19 +5858,19 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6098,19 +6098,19 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -6255,64 +6255,64 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="X17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -6498,19 +6498,19 @@
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -6581,13 +6581,13 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -6657,22 +6657,22 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -6705,16 +6705,16 @@
         <v>8</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6761,27 +6761,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6793,14 +6793,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>['11:30', '13:00']</t>
@@ -6808,12 +6808,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6835,17 +6835,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6857,27 +6857,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6889,17 +6889,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6931,17 +6931,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6968,12 +6968,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -6985,27 +6985,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7049,17 +7049,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7081,27 +7081,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7113,27 +7113,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7160,12 +7160,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7177,27 +7177,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7209,27 +7209,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7305,12 +7305,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7320,12 +7320,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7337,27 +7337,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7369,12 +7369,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -7433,12 +7433,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -7465,27 +7465,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7497,27 +7497,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7529,27 +7529,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7561,27 +7561,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7593,17 +7593,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7657,27 +7657,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7694,12 +7694,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7731,17 +7731,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7753,14 +7753,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7795,17 +7795,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7817,27 +7817,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -441,87 +441,87 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>CD</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>W6</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -548,97 +548,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -655,102 +655,102 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -772,47 +772,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -822,27 +822,27 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -869,102 +869,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -986,92 +986,92 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
@@ -1083,97 +1083,97 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1195,97 +1195,97 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1347,17 +1347,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1367,32 +1367,32 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1404,42 +1404,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1449,22 +1449,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1474,32 +1474,32 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
     </row>
@@ -1511,87 +1511,87 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -1618,32 +1618,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1683,22 +1683,22 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1725,64 +1725,64 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>C3</t>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1832,17 +1832,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1867,37 +1867,37 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1907,27 +1907,27 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -1939,22 +1939,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1964,77 +1964,77 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -2046,37 +2046,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2086,62 +2086,62 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2173,82 +2173,82 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -2265,32 +2265,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2315,47 +2315,47 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2397,42 +2397,42 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2442,12 +2442,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2489,87 +2489,87 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2586,72 +2586,72 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2661,22 +2661,22 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2688,52 +2688,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2800,74 +2800,74 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>N1</t>
@@ -2875,17 +2875,17 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2902,17 +2902,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2922,52 +2922,52 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2977,22 +2977,22 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3014,97 +3014,97 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
@@ -3116,102 +3116,102 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3228,42 +3228,42 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3273,52 +3273,52 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -3330,17 +3330,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3350,67 +3350,67 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3420,12 +3420,12 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -3437,102 +3437,102 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3594,27 +3594,27 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>W6</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>P4</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3651,42 +3651,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3701,27 +3701,27 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -3758,67 +3758,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3828,32 +3828,32 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3880,52 +3880,52 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3945,12 +3945,12 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -3972,102 +3972,102 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01669449081803005</v>
+        <v>0.01502504173622705</v>
       </c>
     </row>
     <row r="6">
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2375886524822695</v>
+        <v>0.2393617021276596</v>
       </c>
     </row>
     <row r="8">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2245430809399478</v>
+        <v>0.1148825065274151</v>
       </c>
     </row>
     <row r="9">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.01126760563380282</v>
       </c>
     </row>
     <row r="10">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.07960199004975124</v>
       </c>
     </row>
     <row r="11">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06106870229007633</v>
+        <v>0.07251908396946564</v>
       </c>
     </row>
     <row r="12">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01457194899817851</v>
       </c>
     </row>
     <row r="13">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03720930232558139</v>
+        <v>0.03255813953488372</v>
       </c>
     </row>
     <row r="24">
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0410958904109589</v>
+        <v>0.0365296803652968</v>
       </c>
     </row>
     <row r="25">
@@ -4774,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="8">
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="18">
@@ -4886,7 +4886,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02718446601941748</v>
+        <v>0.02524271844660194</v>
       </c>
     </row>
   </sheetData>
@@ -5058,19 +5058,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -5218,19 +5218,19 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5298,19 +5298,19 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -5698,19 +5698,19 @@
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -5858,19 +5858,19 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6098,19 +6098,19 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -6255,16 +6255,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -6498,13 +6498,13 @@
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -6651,28 +6651,28 @@
         <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K22" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -6705,16 +6705,16 @@
         <v>8</v>
       </c>
       <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
         <v>8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6793,17 +6793,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6825,27 +6825,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6857,27 +6857,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -6894,22 +6894,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6926,22 +6926,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6968,12 +6968,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6985,27 +6985,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7049,17 +7049,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7081,27 +7081,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7145,27 +7145,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7209,27 +7209,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7241,27 +7241,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7278,22 +7278,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7305,27 +7305,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>['13:00']</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7337,27 +7337,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7374,12 +7374,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7401,17 +7401,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -7433,12 +7433,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7465,27 +7465,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7507,17 +7507,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7534,22 +7534,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7561,27 +7561,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7598,22 +7598,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7625,27 +7625,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7657,27 +7657,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7689,17 +7689,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7753,27 +7753,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7785,27 +7785,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7817,27 +7817,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -51,24 +51,24 @@
     <t>Oreo</t>
   </si>
   <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -156,28 +156,28 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
-    <t>['12:30']</t>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
   </si>
   <si>
     <t>['13:00']</t>
   </si>
   <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
     <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
   </si>
 </sst>
 </file>
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -623,28 +623,28 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
         <v>12</v>
@@ -688,49 +688,49 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -738,64 +738,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -803,43 +803,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O5" t="s">
         <v>10</v>
@@ -848,19 +848,19 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -883,49 +883,49 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -933,40 +933,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -978,19 +978,19 @@
         <v>12</v>
       </c>
       <c r="Q7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -998,19 +998,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1028,34 +1028,34 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1063,61 +1063,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U9" t="s">
         <v>16</v>
@@ -1128,49 +1128,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="s">
         <v>11</v>
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T10" t="s">
         <v>11</v>
@@ -1193,64 +1193,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.6945169712793734</v>
+        <v>0.6866840731070496</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>0.7690140845070422</v>
+        <v>0.7126760563380282</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.7562189054726368</v>
+        <v>0.7338308457711443</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>0.7461832061068703</v>
+        <v>0.7843511450381679</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>0.6958105646630237</v>
+        <v>0.7176684881602914</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7116666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6640776699029126</v>
+        <v>0.6524271844660194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6785714285714286</v>
+        <v>0.6964285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.6813186813186813</v>
+        <v>0.6879120879120879</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.609375</v>
+        <v>0.6026785714285714</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6131868131868132</v>
+        <v>0.6197802197802198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6160714285714286</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.6507936507936508</v>
+        <v>0.6626984126984127</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.6263736263736264</v>
+        <v>0.6131868131868132</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.5959821428571429</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.7166666666666667</v>
+        <v>0.7116666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.7029126213592233</v>
+        <v>0.6970873786407767</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1849,10 @@
         <v>24</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2">
         <v>23</v>
@@ -1879,10 +1879,10 @@
         <v>18</v>
       </c>
       <c r="Q2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2">
         <v>6</v>
@@ -1891,22 +1891,22 @@
         <v>4</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -1929,22 +1929,22 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>18</v>
@@ -1959,10 +1959,10 @@
         <v>14</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3">
         <v>6</v>
@@ -1971,22 +1971,22 @@
         <v>2</v>
       </c>
       <c r="U3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z3">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2009,22 +2009,22 @@
         <v>23</v>
       </c>
       <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
         <v>21</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>19</v>
       </c>
       <c r="M4">
         <v>21</v>
@@ -2039,10 +2039,10 @@
         <v>15</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S4">
         <v>9</v>
@@ -2051,22 +2051,22 @@
         <v>3</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z4">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2089,19 +2089,19 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
       <c r="K5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -2119,10 +2119,10 @@
         <v>19</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -2131,22 +2131,22 @@
         <v>5</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z5">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2178,13 +2178,13 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6">
         <v>18</v>
@@ -2252,19 +2252,19 @@
         <v>17</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <v>20</v>
@@ -2329,22 +2329,22 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>12</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>16</v>
@@ -2359,10 +2359,10 @@
         <v>12</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -2371,22 +2371,22 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8">
+        <v>9</v>
+      </c>
+      <c r="W8">
         <v>8</v>
       </c>
-      <c r="W8">
-        <v>7</v>
-      </c>
       <c r="X8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z8">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2409,19 +2409,19 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L9">
         <v>16</v>
@@ -2439,10 +2439,10 @@
         <v>14</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -2451,22 +2451,22 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="X9">
-        <v>6</v>
-      </c>
       <c r="Y9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -2492,19 +2492,19 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M10">
         <v>24</v>
@@ -2572,16 +2572,16 @@
         <v>17</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
         <v>17</v>
       </c>
-      <c r="J11">
-        <v>14</v>
-      </c>
       <c r="K11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>21</v>
@@ -2652,19 +2652,19 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>16</v>
       </c>
       <c r="K12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12">
         <v>21</v>
@@ -2729,22 +2729,22 @@
         <v>18</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13">
         <v>14</v>
@@ -2759,10 +2759,10 @@
         <v>10</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -2771,22 +2771,22 @@
         <v>3</v>
       </c>
       <c r="U13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
         <v>9</v>
       </c>
-      <c r="W13">
-        <v>8</v>
-      </c>
       <c r="X13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z13">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2809,22 +2809,22 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <v>15</v>
@@ -2839,10 +2839,10 @@
         <v>14</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S14">
         <v>4</v>
@@ -2851,22 +2851,22 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
         <v>6</v>
       </c>
-      <c r="X14">
-        <v>7</v>
-      </c>
       <c r="Y14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2892,19 +2892,19 @@
         <v>25</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>20</v>
       </c>
       <c r="K15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <v>24</v>
@@ -2972,19 +2972,19 @@
         <v>17</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16">
         <v>19</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16">
         <v>18</v>
@@ -3049,22 +3049,22 @@
         <v>22</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>13</v>
       </c>
       <c r="I17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>20</v>
@@ -3079,10 +3079,10 @@
         <v>14</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S17">
         <v>8</v>
@@ -3091,22 +3091,22 @@
         <v>2</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W17">
+        <v>11</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
         <v>9</v>
       </c>
-      <c r="X17">
-        <v>8</v>
-      </c>
-      <c r="Y17">
-        <v>7</v>
-      </c>
       <c r="Z17">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -3129,22 +3129,22 @@
         <v>18</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M18">
         <v>14</v>
@@ -3159,10 +3159,10 @@
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -3171,22 +3171,22 @@
         <v>3</v>
       </c>
       <c r="U18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z18">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -3209,22 +3209,22 @@
         <v>13</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M19">
         <v>15</v>
@@ -3239,10 +3239,10 @@
         <v>14</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -3251,22 +3251,22 @@
         <v>0</v>
       </c>
       <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
         <v>5</v>
       </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
       <c r="X19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z19">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -3289,22 +3289,22 @@
         <v>24</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
         <v>17</v>
       </c>
-      <c r="I20">
-        <v>18</v>
-      </c>
-      <c r="J20">
-        <v>21</v>
-      </c>
       <c r="K20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -3319,10 +3319,10 @@
         <v>18</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S20">
         <v>6</v>
@@ -3331,22 +3331,22 @@
         <v>4</v>
       </c>
       <c r="U20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z20">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -3369,22 +3369,22 @@
         <v>18</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -3399,10 +3399,10 @@
         <v>15</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S21">
         <v>7</v>
@@ -3411,22 +3411,22 @@
         <v>3</v>
       </c>
       <c r="U21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z21">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -3452,19 +3452,19 @@
         <v>397</v>
       </c>
       <c r="H22">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I22">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J22">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K22">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L22">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M22">
         <v>381</v>
@@ -3547,16 +3547,16 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3567,16 +3567,16 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3584,19 +3584,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3604,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -3613,10 +3613,10 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3627,16 +3627,16 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3644,19 +3644,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3664,19 +3664,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3684,19 +3684,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3707,16 +3707,16 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3724,19 +3724,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -51,27 +51,27 @@
     <t>Oreo</t>
   </si>
   <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>P3</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>NW_count</t>
   </si>
   <si>
@@ -156,28 +156,28 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
     <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
   </si>
 </sst>
 </file>
@@ -611,61 +611,61 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -673,64 +673,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -747,19 +747,19 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -768,34 +768,34 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -803,64 +803,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -868,64 +868,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S6" t="s">
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -933,61 +933,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7" t="s">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
         <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S7" t="s">
         <v>12</v>
       </c>
       <c r="T7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U7" t="s">
         <v>12</v>
@@ -998,64 +998,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1063,64 +1063,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1131,16 +1131,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1149,43 +1149,43 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" t="s">
-        <v>11</v>
-      </c>
       <c r="U10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1193,13 +1193,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1208,49 +1208,49 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" t="s">
-        <v>10</v>
-      </c>
       <c r="U11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>0.7039007092198581</v>
+        <v>0.7145390070921985</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.6866840731070496</v>
+        <v>0.6553524804177546</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>0.7126760563380282</v>
+        <v>0.6845070422535211</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.7338308457711443</v>
+        <v>0.7661691542288557</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>0.7843511450381679</v>
+        <v>0.7919847328244275</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>0.7176684881602914</v>
+        <v>0.7158469945355191</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>0.6431623931623932</v>
+        <v>0.655982905982906</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>0.5750636132315522</v>
+        <v>0.5903307888040712</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>0.8883720930232558</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>0.8904109589041096</v>
+        <v>0.863013698630137</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>0.8762886597938144</v>
+        <v>0.845360824742268</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6964285714285714</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.73</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.6626984126984127</v>
+        <v>0.6567460317460317</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.6879120879120879</v>
+        <v>0.7010989010989011</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.74</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7029126213592233</v>
+        <v>0.6970873786407767</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6845238095238095</v>
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6197802197802198</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.609375</v>
+        <v>0.6227678571428571</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.6640776699029126</v>
+        <v>0.6524271844660194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.6626984126984127</v>
+        <v>0.6567460317460317</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.6131868131868132</v>
+        <v>0.6197802197802198</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.609375</v>
+        <v>0.6227678571428571</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.7116666666666667</v>
+        <v>0.6866666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.6970873786407767</v>
+        <v>0.7029126213592233</v>
       </c>
     </row>
   </sheetData>
@@ -1852,19 +1852,19 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>14</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>28</v>
       </c>
       <c r="L2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2">
         <v>23</v>
@@ -1932,13 +1932,13 @@
         <v>19</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>14</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>18</v>
@@ -2009,22 +2009,22 @@
         <v>23</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>19</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4">
         <v>21</v>
@@ -2039,10 +2039,10 @@
         <v>15</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S4">
         <v>9</v>
@@ -2051,22 +2051,22 @@
         <v>3</v>
       </c>
       <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
-        <v>9</v>
-      </c>
-      <c r="W4">
-        <v>11</v>
-      </c>
       <c r="X4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2089,22 +2089,22 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>19</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5">
         <v>24</v>
@@ -2119,10 +2119,10 @@
         <v>19</v>
       </c>
       <c r="Q5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -2131,22 +2131,22 @@
         <v>5</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z5">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2172,19 +2172,19 @@
         <v>16</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>18</v>
@@ -2249,22 +2249,22 @@
         <v>22</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7">
         <v>20</v>
@@ -2279,10 +2279,10 @@
         <v>14</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -2291,22 +2291,22 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
         <v>8</v>
       </c>
-      <c r="V7">
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
         <v>9</v>
       </c>
-      <c r="W7">
-        <v>11</v>
-      </c>
-      <c r="X7">
-        <v>10</v>
-      </c>
       <c r="Y7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z7">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -2329,23 +2329,23 @@
         <v>20</v>
       </c>
       <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
         <v>18</v>
       </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>19</v>
-      </c>
       <c r="M8">
         <v>16</v>
       </c>
@@ -2359,10 +2359,10 @@
         <v>12</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -2371,22 +2371,22 @@
         <v>5</v>
       </c>
       <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
         <v>8</v>
       </c>
-      <c r="V8">
-        <v>9</v>
-      </c>
-      <c r="W8">
-        <v>8</v>
-      </c>
-      <c r="X8">
-        <v>8</v>
-      </c>
-      <c r="Y8">
-        <v>6</v>
-      </c>
       <c r="Z8">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2412,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -2424,7 +2424,7 @@
         <v>18</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9">
         <v>15</v>
@@ -2489,22 +2489,22 @@
         <v>25</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>28</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10">
         <v>24</v>
@@ -2519,10 +2519,10 @@
         <v>19</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S10">
         <v>7</v>
@@ -2531,22 +2531,22 @@
         <v>5</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2569,22 +2569,22 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>16</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11">
         <v>19</v>
@@ -2599,10 +2599,10 @@
         <v>15</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S11">
         <v>7</v>
@@ -2611,22 +2611,22 @@
         <v>3</v>
       </c>
       <c r="U11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z11">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2649,10 +2649,10 @@
         <v>23</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -2661,10 +2661,10 @@
         <v>16</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12">
         <v>21</v>
@@ -2679,10 +2679,10 @@
         <v>15</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S12">
         <v>9</v>
@@ -2691,22 +2691,22 @@
         <v>3</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
         <v>9</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>8</v>
       </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
       <c r="Z12">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2729,22 +2729,22 @@
         <v>18</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13">
         <v>15</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13">
         <v>14</v>
@@ -2759,10 +2759,10 @@
         <v>10</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -2771,22 +2771,22 @@
         <v>3</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z13">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2809,22 +2809,22 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14">
         <v>17</v>
-      </c>
-      <c r="L14">
-        <v>15</v>
       </c>
       <c r="M14">
         <v>15</v>
@@ -2839,10 +2839,10 @@
         <v>14</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <v>4</v>
@@ -2851,22 +2851,22 @@
         <v>0</v>
       </c>
       <c r="U14">
+        <v>9</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="W14">
         <v>7</v>
       </c>
-      <c r="V14">
-        <v>7</v>
-      </c>
-      <c r="W14">
-        <v>5</v>
-      </c>
       <c r="X14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z14">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2889,13 +2889,13 @@
         <v>25</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <v>20</v>
@@ -2904,7 +2904,7 @@
         <v>27</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15">
         <v>24</v>
@@ -2919,10 +2919,10 @@
         <v>19</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S15">
         <v>7</v>
@@ -2931,22 +2931,22 @@
         <v>5</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2969,19 +2969,19 @@
         <v>17</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16">
         <v>19</v>
@@ -2999,10 +2999,10 @@
         <v>14</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -3011,22 +3011,22 @@
         <v>2</v>
       </c>
       <c r="U16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z16">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -3049,19 +3049,19 @@
         <v>22</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <v>11</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -3079,10 +3079,10 @@
         <v>14</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S17">
         <v>8</v>
@@ -3091,22 +3091,22 @@
         <v>2</v>
       </c>
       <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
         <v>8</v>
       </c>
-      <c r="V17">
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
         <v>9</v>
       </c>
-      <c r="W17">
-        <v>11</v>
-      </c>
-      <c r="X17">
-        <v>10</v>
-      </c>
       <c r="Y17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z17">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -3129,16 +3129,16 @@
         <v>18</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <v>17</v>
@@ -3159,10 +3159,10 @@
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -3171,22 +3171,22 @@
         <v>3</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18">
         <v>9</v>
       </c>
-      <c r="W18">
-        <v>8</v>
-      </c>
       <c r="X18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z18">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -3209,16 +3209,16 @@
         <v>13</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19">
         <v>19</v>
@@ -3239,10 +3239,10 @@
         <v>14</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -3251,22 +3251,22 @@
         <v>0</v>
       </c>
       <c r="U19">
+        <v>9</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
         <v>7</v>
       </c>
-      <c r="V19">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
       <c r="X19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z19">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -3289,22 +3289,22 @@
         <v>24</v>
       </c>
       <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
         <v>25</v>
       </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-      <c r="I20">
-        <v>14</v>
-      </c>
-      <c r="J20">
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <v>27</v>
-      </c>
       <c r="L20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20">
         <v>23</v>
@@ -3319,10 +3319,10 @@
         <v>18</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <v>6</v>
@@ -3331,22 +3331,22 @@
         <v>4</v>
       </c>
       <c r="U20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z20">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -3369,19 +3369,19 @@
         <v>18</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>16</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -3399,10 +3399,10 @@
         <v>15</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S21">
         <v>7</v>
@@ -3411,22 +3411,22 @@
         <v>3</v>
       </c>
       <c r="U21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z21">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -3449,22 +3449,22 @@
         <v>395</v>
       </c>
       <c r="G22">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H22">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I22">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J22">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="K22">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L22">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M22">
         <v>381</v>
@@ -3479,10 +3479,10 @@
         <v>297</v>
       </c>
       <c r="Q22">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="R22">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="S22">
         <v>128</v>
@@ -3491,22 +3491,22 @@
         <v>56</v>
       </c>
       <c r="U22">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="V22">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="W22">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="X22">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y22">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Z22">
-        <v>6984</v>
+        <v>6966</v>
       </c>
     </row>
   </sheetData>
@@ -3550,13 +3550,13 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3567,7 +3567,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -3576,7 +3576,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3584,19 +3584,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3604,19 +3604,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3624,19 +3624,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3644,19 +3644,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3670,13 +3670,13 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3684,19 +3684,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3704,19 +3704,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3724,16 +3724,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -446,87 +446,87 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>C4</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -553,92 +553,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -655,62 +655,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -777,57 +777,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -869,102 +869,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
     </row>
@@ -991,87 +991,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1088,97 +1088,97 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1200,92 +1200,92 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1317,72 +1317,72 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1404,102 +1404,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>C2</t>
         </is>
       </c>
     </row>
@@ -1511,102 +1511,102 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -1618,22 +1618,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1673,22 +1673,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1735,32 +1735,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1785,42 +1785,42 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1857,77 +1857,77 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>A5</t>
         </is>
       </c>
     </row>
@@ -1939,69 +1939,69 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>CD</t>
@@ -2009,32 +2009,32 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2061,87 +2061,87 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2168,42 +2168,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2223,32 +2223,32 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2275,17 +2275,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2315,47 +2315,47 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2367,102 +2367,102 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>C4</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2499,77 +2499,77 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2581,44 +2581,44 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>O</t>
@@ -2626,57 +2626,57 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2688,52 +2688,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>C4</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2815,82 +2815,82 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -2902,97 +2902,97 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>C3</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>OB</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3009,102 +3009,102 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>C3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3146,32 +3146,32 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3181,32 +3181,32 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -3238,77 +3238,77 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3330,102 +3330,102 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3447,19 +3447,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>P3</t>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3482,12 +3482,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3544,77 +3544,77 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>W6</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>M1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3651,102 +3651,102 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>C3</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3758,102 +3758,102 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3900,37 +3900,37 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3940,27 +3940,27 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3982,92 +3982,92 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2375886524822695</v>
+        <v>0.2393617021276596</v>
       </c>
     </row>
     <row r="8">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1305483028720627</v>
+        <v>0.1436031331592689</v>
       </c>
     </row>
     <row r="9">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01126760563380282</v>
+        <v>0.01971830985915493</v>
       </c>
     </row>
     <row r="10">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06716417910447761</v>
+        <v>0.04477611940298507</v>
       </c>
     </row>
     <row r="11">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07442748091603053</v>
+        <v>0.06679389312977099</v>
       </c>
     </row>
     <row r="12">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01275045537340619</v>
+        <v>0.02003642987249545</v>
       </c>
     </row>
     <row r="13">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1175213675213675</v>
       </c>
     </row>
     <row r="18">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03053435114503817</v>
+        <v>0.03307888040712468</v>
       </c>
     </row>
     <row r="19">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03720930232558139</v>
+        <v>0.03255813953488372</v>
       </c>
     </row>
     <row r="24">
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0410958904109589</v>
+        <v>0.0365296803652968</v>
       </c>
     </row>
     <row r="25">
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01030927835051546</v>
+        <v>0.005154639175257732</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +4798,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115</v>
+        <v>0.1133333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -5061,16 +5061,16 @@
         <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -5218,13 +5218,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -5301,16 +5301,16 @@
         <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -5695,22 +5695,22 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -5725,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -5743,16 +5743,16 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>1</v>
       </c>
-      <c r="X10" t="n">
-        <v>2</v>
-      </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -5858,19 +5858,19 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6101,13 +6101,13 @@
         <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -6498,13 +6498,13 @@
         <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -6657,22 +6657,22 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K22" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -6705,16 +6705,16 @@
         <v>8</v>
       </c>
       <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
         <v>8</v>
       </c>
-      <c r="X22" t="n">
-        <v>9</v>
-      </c>
       <c r="Y22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6766,17 +6766,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6793,27 +6793,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>['11:30', '13:00']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6825,27 +6825,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6889,14 +6889,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
@@ -6904,12 +6904,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6953,22 +6953,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6990,22 +6990,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7022,17 +7022,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -7049,27 +7049,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7081,27 +7081,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7123,12 +7123,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7160,12 +7160,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7182,12 +7182,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -7224,12 +7224,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7246,17 +7246,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>['13:30']</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7278,17 +7278,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7310,22 +7310,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7342,22 +7342,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7379,17 +7379,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7401,17 +7401,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7433,17 +7433,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -7470,22 +7470,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7497,12 +7497,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7561,17 +7561,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7598,17 +7598,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -7625,19 +7625,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>['13:30']</t>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7699,12 +7699,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7753,27 +7753,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7795,17 +7795,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7817,27 +7817,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -441,29 +441,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>C4</t>
@@ -476,52 +476,52 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -548,52 +548,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -613,37 +613,37 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -655,102 +655,102 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -777,72 +777,72 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -869,102 +869,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -976,102 +976,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>A5</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1093,92 +1093,92 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1190,102 +1190,102 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -1317,27 +1317,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1352,47 +1352,47 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>C4</t>
         </is>
       </c>
     </row>
@@ -1404,102 +1404,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
@@ -1516,97 +1516,97 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>C4</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>CD</t>
         </is>
       </c>
     </row>
@@ -1618,102 +1618,102 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
@@ -1725,102 +1725,102 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1842,92 +1842,92 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1939,92 +1939,92 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>CD</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>C2</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2046,102 +2046,102 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>M1</t>
         </is>
       </c>
     </row>
@@ -2153,102 +2153,102 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2260,32 +2260,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2300,62 +2300,62 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2367,92 +2367,92 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2529,47 +2529,47 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -2581,102 +2581,102 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2688,32 +2688,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2795,102 +2795,102 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -2907,34 +2907,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>M1</t>
@@ -2942,57 +2942,57 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3029,82 +3029,82 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3116,102 +3116,102 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3233,92 +3233,92 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3345,87 +3345,87 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>N1</t>
         </is>
       </c>
     </row>
@@ -3437,17 +3437,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3477,62 +3477,62 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3544,77 +3544,77 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3651,34 +3651,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>C4</t>
@@ -3691,57 +3691,57 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -3758,102 +3758,102 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -3865,102 +3865,102 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3972,102 +3972,102 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2393617021276596</v>
+        <v>0.2411347517730496</v>
       </c>
     </row>
     <row r="8">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1436031331592689</v>
+        <v>0.1644908616187989</v>
       </c>
     </row>
     <row r="9">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01971830985915493</v>
+        <v>0.01126760563380282</v>
       </c>
     </row>
     <row r="10">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.03482587064676617</v>
       </c>
     </row>
     <row r="11">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06679389312977099</v>
+        <v>0.07061068702290077</v>
       </c>
     </row>
     <row r="12">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02003642987249545</v>
+        <v>0.01275045537340619</v>
       </c>
     </row>
     <row r="13">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1175213675213675</v>
+        <v>0.1196581196581197</v>
       </c>
     </row>
     <row r="18">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03307888040712468</v>
+        <v>0.0356234096692112</v>
       </c>
     </row>
     <row r="19">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03255813953488372</v>
+        <v>0.02790697674418605</v>
       </c>
     </row>
     <row r="24">
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0365296803652968</v>
+        <v>0.0319634703196347</v>
       </c>
     </row>
     <row r="25">
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005154639175257732</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4838,7 +4838,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>0.095</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="16">
@@ -5058,19 +5058,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -5218,19 +5218,19 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -5458,19 +5458,19 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -5698,19 +5698,19 @@
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -5858,19 +5858,19 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6095,19 +6095,19 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -6125,34 +6125,34 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>1</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2</v>
-      </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -6501,16 +6501,16 @@
         <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -6657,22 +6657,22 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37</v>
+      </c>
+      <c r="L22" t="n">
         <v>7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>18</v>
-      </c>
-      <c r="K22" t="n">
-        <v>35</v>
-      </c>
-      <c r="L22" t="n">
-        <v>11</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -6705,16 +6705,16 @@
         <v>8</v>
       </c>
       <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
         <v>7</v>
       </c>
-      <c r="X22" t="n">
-        <v>8</v>
-      </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6761,17 +6761,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6793,27 +6793,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -6825,27 +6825,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -6862,17 +6862,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6889,27 +6889,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -6926,22 +6926,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -6953,27 +6953,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -6985,22 +6985,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7049,27 +7049,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>['13:00']</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7081,27 +7081,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>['11:30', '13:00']</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>['11:30', '13:00']</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7118,22 +7118,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7145,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7182,22 +7182,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
     </row>
@@ -7214,17 +7214,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -7241,27 +7241,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7305,22 +7305,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7337,12 +7337,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7401,27 +7401,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>['11:30', '12:30']</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7465,12 +7465,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -7593,27 +7593,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7630,12 +7630,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7689,22 +7689,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7753,27 +7753,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>['11:30', '13:30']</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -7785,27 +7785,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>['11:30', '12:00']</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>['11:30', '13:00']</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7817,22 +7817,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:00']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['11:30', '13:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="88">
   <si>
     <t>Abe</t>
   </si>
@@ -123,60 +123,54 @@
     <t>Yvette</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>OB</t>
+    <t>P4</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>NW_count</t>
   </si>
   <si>
@@ -261,34 +255,34 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
     <t>['11:30', '13:00']</t>
   </si>
   <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
     <t>['11:30', '13:30']</t>
   </si>
   <si>
-    <t>['12:30']</t>
+    <t>[]</t>
   </si>
   <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
     <t>['13:00']</t>
   </si>
   <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
     <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
   </si>
 </sst>
 </file>
@@ -722,61 +716,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -787,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -796,34 +790,34 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
         <v>38</v>
@@ -832,16 +826,16 @@
         <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -852,61 +846,61 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="T4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -914,61 +908,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
       </c>
       <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
         <v>35</v>
@@ -979,64 +973,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1044,58 +1038,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
         <v>35</v>
@@ -1112,61 +1106,61 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
         <v>44</v>
       </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
-        <v>35</v>
-      </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1177,58 +1171,58 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
         <v>35</v>
@@ -1239,64 +1233,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1304,52 +1298,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R11" t="s">
         <v>41</v>
@@ -1361,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1369,64 +1363,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
         <v>40</v>
       </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>39</v>
       </c>
-      <c r="T12" t="s">
-        <v>36</v>
-      </c>
       <c r="U12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1434,10 +1428,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1446,52 +1440,52 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O13" t="s">
         <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" t="s">
         <v>47</v>
       </c>
-      <c r="S13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" t="s">
-        <v>36</v>
-      </c>
       <c r="U13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1499,64 +1493,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
         <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1564,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1573,55 +1567,55 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1629,64 +1623,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" t="s">
-        <v>36</v>
-      </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1694,64 +1688,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
         <v>37</v>
       </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
-      </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" t="s">
         <v>37</v>
       </c>
-      <c r="R17" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17" t="s">
-        <v>45</v>
-      </c>
       <c r="T17" t="s">
         <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1759,58 +1753,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="T18" t="s">
         <v>37</v>
@@ -1824,64 +1818,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" t="s">
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" t="s">
         <v>37</v>
       </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" t="s">
-        <v>50</v>
-      </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1889,28 +1883,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
         <v>35</v>
@@ -1919,34 +1913,34 @@
         <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
         <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="S20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="U20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1957,61 +1951,61 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2022,37 +2016,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" t="s">
-        <v>36</v>
-      </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -2061,22 +2055,22 @@
         <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S22" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2087,61 +2081,61 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" t="s">
-        <v>39</v>
-      </c>
       <c r="N23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O23" t="s">
         <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23" t="s">
         <v>40</v>
       </c>
-      <c r="T23" t="s">
-        <v>39</v>
-      </c>
       <c r="U23" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2149,64 +2143,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2214,64 +2208,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
       <c r="G25" t="s">
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O25" t="s">
         <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="s">
         <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s">
         <v>35</v>
       </c>
       <c r="T25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2282,61 +2276,61 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s">
         <v>41</v>
       </c>
       <c r="S26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" t="s">
         <v>36</v>
-      </c>
-      <c r="U26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2344,64 +2338,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" t="s">
         <v>44</v>
-      </c>
-      <c r="R27" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" t="s">
-        <v>35</v>
-      </c>
-      <c r="T27" t="s">
-        <v>45</v>
-      </c>
-      <c r="U27" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2409,64 +2403,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R28" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" t="s">
-        <v>50</v>
-      </c>
       <c r="T28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2474,64 +2468,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2539,64 +2533,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L30" t="s">
         <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="T30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2604,64 +2598,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2669,64 +2663,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" t="s">
         <v>44</v>
       </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" t="s">
-        <v>40</v>
-      </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O32" t="s">
         <v>35</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q32" t="s">
         <v>35</v>
       </c>
       <c r="R32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2734,64 +2728,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R33" t="s">
         <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2799,64 +2793,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2864,64 +2858,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" t="s">
         <v>36</v>
       </c>
-      <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N35" t="s">
-        <v>35</v>
-      </c>
       <c r="O35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2947,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2955,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2963,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2971,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2987,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2995,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3003,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3027,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3051,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3067,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3075,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3091,7 +3085,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3099,7 +3093,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3107,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3123,7 +3117,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3131,7 +3125,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3163,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3195,7 +3189,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3203,7 +3197,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3211,7 +3205,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3229,148 +3223,148 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>0.07131280388978931</v>
+        <v>0.1523500810372772</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>0.01642335766423358</v>
+        <v>0.07481751824817519</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>0.03177257525083612</v>
+        <v>0.1187290969899666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>0.01502504173622705</v>
+        <v>0.1185308848080134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>0.01877133105802048</v>
+        <v>0.1040955631399317</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>0.2411347517730496</v>
+        <v>0.4237588652482269</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>0.1331592689295039</v>
+        <v>0.3733681462140992</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.08732394366197183</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>0.04477611940298507</v>
+        <v>0.154228855721393</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>0.07824427480916031</v>
+        <v>0.1851145038167939</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>0.0273224043715847</v>
+        <v>0.09653916211293261</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>0.006993006993006993</v>
+        <v>0.08566433566433566</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.0367504835589942</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.01330798479087452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.01844262295081967</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17">
-        <v>0.1196581196581197</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>0.0356234096692112</v>
+        <v>0.1730279898218829</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3386,7 +3380,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3394,7 +3388,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>0.03703703703703703</v>
@@ -3402,23 +3396,23 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>0.02790697674418605</v>
+        <v>0.03720930232558139</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24">
-        <v>0.0319634703196347</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3439,7 +3433,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3447,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1133333333333333</v>
+        <v>0.2433333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3455,7 +3449,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.02524271844660194</v>
+        <v>0.1029126213592233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3463,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.02777777777777778</v>
+        <v>0.121031746031746</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3471,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1133333333333333</v>
+        <v>0.2433333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3479,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01747572815533981</v>
+        <v>0.07961165048543689</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3487,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0119047619047619</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3495,7 +3489,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.006593406593406593</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3503,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.01116071428571429</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3511,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1133333333333333</v>
+        <v>0.2433333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3519,7 +3513,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01747572815533981</v>
+        <v>0.07961165048543689</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3527,7 +3521,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02777777777777778</v>
+        <v>0.121031746031746</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3535,7 +3529,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.004395604395604396</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3543,7 +3537,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.015625</v>
+        <v>0.08035714285714286</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3551,7 +3545,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.09333333333333334</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3559,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.01747572815533981</v>
+        <v>0.07961165048543689</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3567,7 +3561,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.01785714285714286</v>
+        <v>0.0992063492063492</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3575,7 +3569,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.004395604395604396</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3583,7 +3577,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.01116071428571429</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3591,7 +3585,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.1133333333333333</v>
+        <v>0.2433333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3599,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02524271844660194</v>
+        <v>0.1029126213592233</v>
       </c>
     </row>
   </sheetData>
@@ -3617,79 +3611,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3697,55 +3691,55 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="Q2">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>8</v>
-      </c>
       <c r="R2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -3769,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3777,55 +3771,55 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
         <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -3849,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3857,40 +3851,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
       <c r="M4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3902,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3929,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3937,55 +3931,55 @@
         <v>8</v>
       </c>
       <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4009,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4017,37 +4011,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4056,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4089,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4097,7 +4091,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4106,70 +4100,70 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4189,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4222,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4249,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4263,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4272,19 +4266,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4305,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4329,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4337,55 +4331,55 @@
         <v>15</v>
       </c>
       <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="R10">
         <v>9</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4409,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4417,37 +4411,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -4456,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -4489,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4497,55 +4491,55 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -4569,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4592,20 +4586,20 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
         <v>0</v>
       </c>
@@ -4622,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4649,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4663,31 +4657,31 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -4702,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -4729,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4737,55 +4731,55 @@
         <v>22</v>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
         <v>8</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -4809,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4817,37 +4811,37 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4856,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -4889,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -4897,40 +4891,40 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -4942,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -4960,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
         <v>1</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -4992,19 +4986,19 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5022,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5049,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5063,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5072,19 +5066,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5105,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -5129,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5137,55 +5131,55 @@
         <v>29</v>
       </c>
       <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
         <v>9</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>14</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>8</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5209,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5217,55 +5211,55 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -5289,63 +5283,63 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>61</v>
+      </c>
+      <c r="G22">
+        <v>239</v>
+      </c>
+      <c r="H22">
+        <v>143</v>
+      </c>
+      <c r="I22">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <v>97</v>
+      </c>
+      <c r="L22">
+        <v>53</v>
+      </c>
+      <c r="M22">
+        <v>49</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22">
         <v>9</v>
       </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>136</v>
-      </c>
-      <c r="H22">
-        <v>51</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>18</v>
-      </c>
-      <c r="K22">
-        <v>41</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="R22">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -5360,16 +5354,16 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>448</v>
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
@@ -5407,19 +5401,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5427,19 +5421,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5447,19 +5441,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5467,19 +5461,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5487,19 +5481,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5507,16 +5501,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>81</v>
@@ -5527,19 +5521,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5547,19 +5541,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5567,16 +5561,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -5587,7 +5581,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>84</v>
@@ -5596,7 +5590,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>84</v>
@@ -5607,19 +5601,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5627,19 +5621,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5647,19 +5641,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5673,13 +5667,13 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5687,19 +5681,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5707,19 +5701,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5727,16 +5721,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -5747,16 +5741,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -5767,19 +5761,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5787,16 +5781,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -5807,19 +5801,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5827,19 +5821,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5847,19 +5841,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5867,19 +5861,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
       </c>
       <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
         <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5890,16 +5884,16 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5910,16 +5904,16 @@
         <v>81</v>
       </c>
       <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
         <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5927,19 +5921,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5947,19 +5941,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5967,16 +5961,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
         <v>84</v>
@@ -5987,19 +5981,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6007,19 +6001,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6027,19 +6021,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>81</v>
-      </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6047,19 +6041,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6067,19 +6061,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>84</v>
       </c>
       <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
         <v>84</v>
-      </c>
-      <c r="F35" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -123,60 +123,60 @@
     <t>Yvette</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P2</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>OB</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>P5</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>W6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>NW_count</t>
   </si>
   <si>
@@ -261,28 +261,28 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
     <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
   </si>
   <si>
     <t>['13:30']</t>
@@ -722,61 +722,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -787,25 +787,25 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -814,34 +814,34 @@
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -849,43 +849,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -894,19 +894,19 @@
         <v>41</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -914,19 +914,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -938,40 +938,40 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -982,61 +982,61 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
         <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1047,61 +1047,61 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" t="s">
+      <c r="R7" t="s">
         <v>43</v>
       </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="S7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1109,61 +1109,61 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
         <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s">
         <v>36</v>
@@ -1177,55 +1177,55 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
         <v>46</v>
@@ -1239,22 +1239,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -1263,40 +1263,40 @@
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
         <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
         <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1304,64 +1304,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
         <v>41</v>
       </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="S11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
-        <v>39</v>
-      </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1369,64 +1369,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
         <v>39</v>
       </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" t="s">
-        <v>40</v>
-      </c>
       <c r="T12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1434,64 +1434,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
       <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" t="s">
-        <v>42</v>
-      </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S13" t="s">
         <v>35</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1499,64 +1499,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1564,64 +1564,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1629,64 +1629,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="U16" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1694,64 +1694,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="K17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1759,28 +1759,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
@@ -1792,28 +1792,28 @@
         <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
@@ -1824,46 +1824,46 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
         <v>43</v>
@@ -1872,16 +1872,16 @@
         <v>43</v>
       </c>
       <c r="R19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" t="s">
         <v>43</v>
       </c>
-      <c r="S19" t="s">
-        <v>47</v>
-      </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1889,16 +1889,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -1916,37 +1916,37 @@
         <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
         <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1957,61 +1957,61 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2019,64 +2019,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s">
         <v>40</v>
       </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" t="s">
-        <v>35</v>
-      </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2084,61 +2084,61 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
         <v>39</v>
       </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" t="s">
         <v>40</v>
       </c>
-      <c r="N23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S23" t="s">
-        <v>42</v>
-      </c>
       <c r="T23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
@@ -2149,64 +2149,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2214,46 +2214,46 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
-      </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M25" t="s">
         <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
         <v>41</v>
@@ -2262,10 +2262,10 @@
         <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s">
         <v>41</v>
@@ -2279,64 +2279,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s">
         <v>41</v>
       </c>
-      <c r="H26" t="s">
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
         <v>41</v>
-      </c>
-      <c r="I26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>35</v>
       </c>
       <c r="R26" t="s">
         <v>41</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2347,61 +2347,61 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s">
         <v>43</v>
       </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="M27" t="s">
         <v>43</v>
       </c>
-      <c r="I27" t="s">
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" t="s">
         <v>43</v>
       </c>
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O27" t="s">
-        <v>50</v>
-      </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2409,64 +2409,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2474,64 +2474,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
         <v>46</v>
       </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" t="s">
-        <v>37</v>
-      </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" t="s">
         <v>46</v>
       </c>
-      <c r="P29" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>46</v>
-      </c>
-      <c r="R29" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" t="s">
-        <v>38</v>
-      </c>
-      <c r="T29" t="s">
-        <v>35</v>
-      </c>
       <c r="U29" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2539,64 +2539,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" t="s">
         <v>43</v>
       </c>
-      <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" t="s">
-        <v>47</v>
-      </c>
-      <c r="S30" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" t="s">
-        <v>36</v>
-      </c>
       <c r="U30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2604,64 +2604,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2669,64 +2669,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L32" t="s">
         <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="T32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2734,61 +2734,61 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s">
         <v>46</v>
@@ -2802,58 +2802,58 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U34" t="s">
         <v>41</v>
@@ -2864,64 +2864,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3027,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3043,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3059,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3091,7 +3091,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3107,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +3285,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.1644908616187989</v>
+        <v>0.1331592689295039</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>0.01126760563380282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>0.03482587064676617</v>
+        <v>0.04477611940298507</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <v>0.07061068702290077</v>
+        <v>0.07824427480916031</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>64</v>
       </c>
       <c r="B12">
-        <v>0.01275045537340619</v>
+        <v>0.0273224043715847</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3718,16 +3718,16 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -4355,19 +4355,19 @@
         <v>14</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -4515,19 +4515,19 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4755,13 +4755,13 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -4915,13 +4915,13 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5155,13 +5155,13 @@
         <v>14</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -5315,19 +5315,19 @@
         <v>136</v>
       </c>
       <c r="H22">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M22">
         <v>4</v>
@@ -5410,10 +5410,10 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -5430,16 +5430,16 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5450,16 +5450,16 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5467,16 +5467,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -5487,19 +5487,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5507,16 +5507,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>81</v>
@@ -5530,16 +5530,16 @@
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5547,19 +5547,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5567,19 +5567,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5587,16 +5587,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>84</v>
@@ -5607,19 +5607,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5627,19 +5627,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5647,19 +5647,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5670,16 +5670,16 @@
         <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5687,19 +5687,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5713,13 +5713,13 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5727,16 +5727,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -5747,19 +5747,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5767,19 +5767,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5793,7 +5793,7 @@
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
@@ -5807,19 +5807,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
       <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5830,10 +5830,10 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -5847,19 +5847,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5867,16 +5867,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
@@ -5887,7 +5887,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
@@ -5896,10 +5896,10 @@
         <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5907,16 +5907,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
@@ -5927,19 +5927,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5947,19 +5947,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5970,16 +5970,16 @@
         <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
         <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5987,16 +5987,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
         <v>89</v>
@@ -6007,19 +6007,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6027,10 +6027,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -6039,7 +6039,7 @@
         <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6050,16 +6050,16 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
         <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6067,19 +6067,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="91">
   <si>
     <t>Abe</t>
   </si>
@@ -132,43 +132,49 @@
     <t>A5</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t>A4</t>
   </si>
   <si>
     <t>AS</t>
@@ -267,22 +273,25 @@
     <t>['13:30']</t>
   </si>
   <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['13:00']</t>
   </si>
   <si>
     <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -722,55 +731,55 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -790,52 +799,52 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -846,61 +855,61 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
-      </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -932,7 +941,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
@@ -941,7 +950,7 @@
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
         <v>48</v>
@@ -950,22 +959,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
         <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
         <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -979,58 +988,58 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
         <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1044,58 +1053,58 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
       <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>42</v>
       </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
         <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
         <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1103,64 +1112,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
         <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
         <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1168,64 +1177,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1242,19 +1251,19 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1266,28 +1275,28 @@
         <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P10" t="s">
         <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
         <v>37</v>
@@ -1298,28 +1307,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1328,28 +1337,28 @@
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
         <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
         <v>37</v>
@@ -1363,64 +1372,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1428,37 +1437,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
@@ -1467,25 +1476,25 @@
         <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1493,25 +1502,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -1520,37 +1529,37 @@
         <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s">
         <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1561,22 +1570,22 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -1585,10 +1594,10 @@
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
         <v>36</v>
@@ -1606,16 +1615,16 @@
         <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1623,43 +1632,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
         <v>35</v>
@@ -1668,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R16" t="s">
         <v>49</v>
@@ -1677,10 +1686,10 @@
         <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1688,46 +1697,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" t="s">
         <v>42</v>
-      </c>
-      <c r="M17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" t="s">
-        <v>41</v>
       </c>
       <c r="P17" t="s">
         <v>48</v>
@@ -1736,16 +1745,16 @@
         <v>34</v>
       </c>
       <c r="R17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
         <v>42</v>
       </c>
-      <c r="S17" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" t="s">
-        <v>35</v>
-      </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1753,64 +1762,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
         <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
         <v>48</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1818,64 +1827,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" t="s">
-        <v>46</v>
-      </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q19" t="s">
         <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1883,43 +1892,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
         <v>35</v>
@@ -1931,16 +1940,16 @@
         <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1948,28 +1957,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
         <v>36</v>
@@ -1978,28 +1987,28 @@
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
         <v>35</v>
@@ -2022,34 +2031,34 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
         <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
         <v>36</v>
@@ -2058,19 +2067,19 @@
         <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2087,55 +2096,55 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
       <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
         <v>50</v>
       </c>
-      <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" t="s">
         <v>35</v>
-      </c>
-      <c r="P23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" t="s">
-        <v>49</v>
-      </c>
-      <c r="T23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2143,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -2152,55 +2161,55 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" t="s">
-        <v>35</v>
-      </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2208,40 +2217,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
         <v>45</v>
@@ -2256,16 +2265,16 @@
         <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2273,22 +2282,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
         <v>49</v>
@@ -2300,37 +2309,37 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" t="s">
         <v>38</v>
       </c>
-      <c r="O26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>45</v>
-      </c>
-      <c r="R26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S26" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" t="s">
-        <v>42</v>
-      </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2338,19 +2347,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -2359,16 +2368,16 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s">
         <v>36</v>
@@ -2377,25 +2386,25 @@
         <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
         <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2403,43 +2412,43 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M28" t="s">
         <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O28" t="s">
         <v>36</v>
@@ -2451,16 +2460,16 @@
         <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s">
         <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2468,64 +2477,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N29" t="s">
         <v>48</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2533,28 +2542,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -2572,22 +2581,22 @@
         <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s">
         <v>45</v>
@@ -2598,31 +2607,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
         <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
@@ -2637,10 +2646,10 @@
         <v>49</v>
       </c>
       <c r="O31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" t="s">
         <v>43</v>
-      </c>
-      <c r="P31" t="s">
-        <v>37</v>
       </c>
       <c r="Q31" t="s">
         <v>38</v>
@@ -2649,13 +2658,13 @@
         <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2663,34 +2672,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
@@ -2699,28 +2708,28 @@
         <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2728,16 +2737,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
@@ -2746,46 +2755,46 @@
         <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" t="s">
         <v>35</v>
       </c>
-      <c r="K33" t="s">
-        <v>36</v>
-      </c>
       <c r="L33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O33" t="s">
         <v>35</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2793,37 +2802,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" t="s">
         <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" t="s">
-        <v>37</v>
       </c>
       <c r="M34" t="s">
         <v>49</v>
@@ -2832,25 +2841,25 @@
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R34" t="s">
         <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2858,49 +2867,49 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q35" t="s">
         <v>49</v>
@@ -2909,10 +2918,10 @@
         <v>49</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -2933,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2949,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2973,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3037,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3053,7 +3062,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3085,7 +3094,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3101,7 +3110,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3133,7 +3142,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3141,7 +3150,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3149,7 +3158,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3157,7 +3166,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3165,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3173,7 +3182,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3205,7 +3214,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3223,12 +3232,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0.03225806451612903</v>
@@ -3236,7 +3245,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3244,7 +3253,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3252,7 +3261,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3260,7 +3269,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3268,7 +3277,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0.07304785894206549</v>
@@ -3276,15 +3285,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>0.0483271375464684</v>
+        <v>0.05204460966542751</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3292,15 +3301,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.00353356890459364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0.02439024390243903</v>
@@ -3308,7 +3317,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3316,7 +3325,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3324,7 +3333,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3332,7 +3341,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3340,7 +3349,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3348,7 +3357,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>0.02735562310030395</v>
@@ -3356,7 +3365,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3364,7 +3373,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3372,7 +3381,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3380,7 +3389,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3388,7 +3397,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3396,7 +3405,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3404,7 +3413,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>0.03289473684210526</v>
@@ -3412,7 +3421,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3433,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3611,79 +3620,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3709,13 +3718,13 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5288,7 +5297,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -5309,13 +5318,13 @@
         <v>29</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -5401,19 +5410,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5421,19 +5430,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5441,19 +5450,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5461,19 +5470,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5481,16 +5490,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -5501,19 +5510,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5521,19 +5530,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5541,19 +5550,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5561,19 +5570,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5581,19 +5590,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5601,19 +5610,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5621,16 +5630,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -5641,19 +5650,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5661,19 +5670,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5681,19 +5690,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5701,19 +5710,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5721,19 +5730,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5741,19 +5750,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5761,19 +5770,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5781,19 +5790,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5801,19 +5810,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5821,19 +5830,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5841,19 +5850,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5861,19 +5870,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5881,16 +5890,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>86</v>
@@ -5904,16 +5913,16 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5921,19 +5930,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
         <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5941,19 +5950,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5961,19 +5970,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5981,19 +5990,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
         <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6001,19 +6010,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
         <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6024,13 +6033,13 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -6041,19 +6050,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6061,19 +6070,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="88">
   <si>
     <t>Abe</t>
   </si>
@@ -132,51 +132,45 @@
     <t>A5</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
     <t>CD</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>W6</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -273,25 +267,22 @@
     <t>['13:30']</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
     <t>['12:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -731,55 +722,55 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
       </c>
       <c r="O2" t="s">
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -799,52 +790,52 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -855,61 +846,61 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -941,7 +932,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
@@ -950,7 +941,7 @@
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
         <v>48</v>
@@ -959,22 +950,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
         <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" t="s">
-        <v>34</v>
       </c>
       <c r="T5" t="s">
         <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -988,58 +979,58 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
         <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1053,58 +1044,58 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
         <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s">
         <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1112,64 +1103,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
         <v>43</v>
       </c>
       <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
         <v>40</v>
       </c>
-      <c r="P8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" t="s">
-        <v>44</v>
-      </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1177,64 +1168,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" t="s">
-        <v>36</v>
-      </c>
       <c r="U9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1251,19 +1242,19 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1275,28 +1266,28 @@
         <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
         <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
         <v>37</v>
@@ -1307,28 +1298,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1337,28 +1328,28 @@
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
         <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s">
         <v>37</v>
@@ -1372,64 +1363,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" t="s">
-        <v>42</v>
-      </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1437,37 +1428,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
@@ -1476,25 +1467,25 @@
         <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1502,25 +1493,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -1529,37 +1520,37 @@
         <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" t="s">
         <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1570,22 +1561,22 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -1594,10 +1585,10 @@
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
         <v>36</v>
@@ -1615,16 +1606,16 @@
         <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1632,43 +1623,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O16" t="s">
         <v>35</v>
@@ -1677,7 +1668,7 @@
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
         <v>49</v>
@@ -1686,10 +1677,10 @@
         <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1697,46 +1688,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
         <v>48</v>
@@ -1745,16 +1736,16 @@
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1762,64 +1753,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
         <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
         <v>48</v>
       </c>
       <c r="Q18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1827,64 +1818,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
         <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="s">
         <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1892,43 +1883,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O20" t="s">
         <v>35</v>
@@ -1940,16 +1931,16 @@
         <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1957,28 +1948,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
       <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
         <v>36</v>
@@ -1987,28 +1978,28 @@
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s">
         <v>35</v>
@@ -2031,34 +2022,34 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
         <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O22" t="s">
         <v>36</v>
@@ -2067,19 +2058,19 @@
         <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2096,55 +2087,55 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" t="s">
         <v>49</v>
       </c>
-      <c r="N23" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" t="s">
-        <v>40</v>
-      </c>
       <c r="Q23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2152,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -2161,55 +2152,55 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" t="s">
         <v>35</v>
       </c>
-      <c r="F24" t="s">
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" t="s">
         <v>37</v>
       </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" t="s">
-        <v>46</v>
-      </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2217,40 +2208,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>49</v>
       </c>
       <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
         <v>49</v>
       </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N25" t="s">
         <v>45</v>
@@ -2265,16 +2256,16 @@
         <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2282,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
         <v>49</v>
@@ -2309,37 +2300,37 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2347,19 +2338,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -2368,16 +2359,16 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
         <v>36</v>
@@ -2386,25 +2377,25 @@
         <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P27" t="s">
         <v>44</v>
       </c>
       <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s">
         <v>44</v>
       </c>
-      <c r="R27" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" t="s">
-        <v>35</v>
-      </c>
       <c r="U27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2412,43 +2403,43 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
         <v>49</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M28" t="s">
         <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O28" t="s">
         <v>36</v>
@@ -2460,16 +2451,16 @@
         <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s">
         <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2477,64 +2468,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N29" t="s">
         <v>48</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2542,28 +2533,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -2581,22 +2572,22 @@
         <v>49</v>
       </c>
       <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
         <v>43</v>
       </c>
-      <c r="P30" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>50</v>
-      </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s">
         <v>45</v>
@@ -2607,31 +2598,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
@@ -2646,10 +2637,10 @@
         <v>49</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q31" t="s">
         <v>38</v>
@@ -2658,13 +2649,13 @@
         <v>48</v>
       </c>
       <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
         <v>38</v>
       </c>
-      <c r="T31" t="s">
-        <v>35</v>
-      </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2672,34 +2663,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
@@ -2708,28 +2699,28 @@
         <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2737,64 +2728,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O33" t="s">
         <v>35</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="U33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2802,37 +2793,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M34" t="s">
         <v>49</v>
@@ -2841,25 +2832,25 @@
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R34" t="s">
         <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="U34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2867,49 +2858,49 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" t="s">
-        <v>37</v>
-      </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q35" t="s">
         <v>49</v>
@@ -2918,10 +2909,10 @@
         <v>49</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -2942,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2958,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2982,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3046,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3062,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3094,7 +3085,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3110,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3142,7 +3133,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3150,7 +3141,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3158,7 +3149,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3166,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3174,7 +3165,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3182,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3214,7 +3205,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3232,12 +3223,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0.03225806451612903</v>
@@ -3245,7 +3236,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3253,7 +3244,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3261,7 +3252,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3269,7 +3260,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3277,7 +3268,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0.07304785894206549</v>
@@ -3285,15 +3276,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>0.05204460966542751</v>
+        <v>0.0483271375464684</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3301,15 +3292,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.00353356890459364</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>0.02439024390243903</v>
@@ -3317,7 +3308,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3325,7 +3316,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3333,7 +3324,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3341,7 +3332,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3349,7 +3340,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3357,7 +3348,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>0.02735562310030395</v>
@@ -3365,7 +3356,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3373,7 +3364,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3381,7 +3372,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3389,7 +3380,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3397,7 +3388,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3405,7 +3396,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3413,7 +3404,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>0.03289473684210526</v>
@@ -3421,7 +3412,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3442,7 +3433,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3620,79 +3611,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3718,13 +3709,13 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5297,7 +5288,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -5318,13 +5309,13 @@
         <v>29</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -5410,19 +5401,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5430,19 +5421,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5450,19 +5441,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5470,19 +5461,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5490,16 +5481,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -5510,19 +5501,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5530,19 +5521,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5550,19 +5541,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5570,19 +5561,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5590,19 +5581,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5610,19 +5601,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5630,16 +5621,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -5650,19 +5641,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5670,19 +5661,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5690,19 +5681,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5710,19 +5701,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5730,19 +5721,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5750,19 +5741,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5770,19 +5761,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5790,19 +5781,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5810,19 +5801,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5830,19 +5821,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5850,19 +5841,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5870,19 +5861,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5890,16 +5881,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>86</v>
@@ -5913,16 +5904,16 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5930,19 +5921,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5950,19 +5941,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5970,19 +5961,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
         <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5990,19 +5981,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6010,19 +6001,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6033,13 +6024,13 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -6050,19 +6041,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6070,19 +6061,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
         <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -11,15 +11,16 @@
     <sheet name="員工本月晚班次數" sheetId="2" r:id="rId2"/>
     <sheet name="每個時段缺工百分比表" sheetId="3" r:id="rId3"/>
     <sheet name="每天缺工百分比表" sheetId="4" r:id="rId4"/>
-    <sheet name="缺工人數表" sheetId="5" r:id="rId5"/>
-    <sheet name="員工每週有哪幾種休息時間" sheetId="6" r:id="rId6"/>
+    <sheet name="員工本月午班次數" sheetId="5" r:id="rId5"/>
+    <sheet name="缺工人數表" sheetId="6" r:id="rId6"/>
+    <sheet name="員工每週有哪幾種休息時間" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="92">
   <si>
     <t>Abe</t>
   </si>
@@ -129,40 +130,46 @@
     <t>N1</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>A5</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>OB</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
   <si>
     <t>CD</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
   <si>
     <t>W6</t>
@@ -174,7 +181,7 @@
     <t>AS</t>
   </si>
   <si>
-    <t>NW_count</t>
+    <t>NightWork_count</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -252,6 +259,9 @@
     <t>20:30</t>
   </si>
   <si>
+    <t>NoonWork_count</t>
+  </si>
+  <si>
     <t>SUM_per_day</t>
   </si>
   <si>
@@ -261,28 +271,31 @@
     <t>['11:30']</t>
   </si>
   <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -719,34 +732,34 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
@@ -755,22 +768,22 @@
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -787,55 +800,55 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -843,64 +856,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
         <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -908,64 +921,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -976,58 +989,58 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
         <v>45</v>
       </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s">
         <v>48</v>
@@ -1041,61 +1054,61 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1109,58 +1122,58 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
         <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1171,22 +1184,22 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -1195,37 +1208,37 @@
         <v>35</v>
       </c>
       <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
         <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1233,64 +1246,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
         <v>34</v>
       </c>
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" t="s">
-        <v>35</v>
-      </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1298,28 +1311,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1328,34 +1341,34 @@
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1363,64 +1376,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
         <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1428,64 +1441,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1493,64 +1506,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
-        <v>42</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1561,61 +1574,61 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="S15" t="s">
         <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1623,37 +1636,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
@@ -1662,25 +1675,25 @@
         <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1688,64 +1701,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q17" t="s">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1753,64 +1766,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1818,64 +1831,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1883,64 +1896,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
         <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q20" t="s">
         <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1948,58 +1961,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T21" t="s">
         <v>35</v>
@@ -2016,61 +2029,61 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
         <v>36</v>
       </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
         <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2087,55 +2100,55 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q23" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2143,64 +2156,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
       </c>
       <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" t="s">
         <v>35</v>
       </c>
-      <c r="L24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
         <v>35</v>
       </c>
-      <c r="N24" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" t="s">
-        <v>37</v>
-      </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2208,64 +2221,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" t="s">
-        <v>45</v>
-      </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2273,61 +2286,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
+        <v>47</v>
+      </c>
+      <c r="T26" t="s">
         <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>45</v>
-      </c>
-      <c r="R26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S26" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" t="s">
-        <v>42</v>
       </c>
       <c r="U26" t="s">
         <v>42</v>
@@ -2338,64 +2351,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" t="s">
         <v>35</v>
       </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" t="s">
-        <v>36</v>
-      </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2403,64 +2416,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s">
         <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2468,64 +2481,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" t="s">
         <v>45</v>
       </c>
-      <c r="M29" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S29" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" t="s">
-        <v>42</v>
-      </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2533,64 +2546,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q30" t="s">
         <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2598,64 +2611,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
         <v>43</v>
       </c>
-      <c r="P31" t="s">
-        <v>37</v>
-      </c>
       <c r="Q31" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2663,64 +2676,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
         <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" t="s">
-        <v>49</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q32" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2728,64 +2741,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
         <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R33" t="s">
         <v>37</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2793,40 +2806,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>47</v>
-      </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
@@ -2835,22 +2848,22 @@
         <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2858,64 +2871,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
       </c>
       <c r="H35" t="s">
         <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2949,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2957,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2965,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3029,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3053,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3069,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3077,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3085,7 +3098,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3133,7 +3146,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3189,7 +3202,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3223,12 +3236,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0.03225806451612903</v>
@@ -3236,7 +3249,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3244,7 +3257,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3252,7 +3265,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3260,7 +3273,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3268,7 +3281,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0.07304785894206549</v>
@@ -3276,7 +3289,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0.0483271375464684</v>
@@ -3284,7 +3297,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3292,23 +3305,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.00353356890459364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>0.02439024390243903</v>
+        <v>0.02710027100271003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3316,7 +3329,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3324,7 +3337,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3332,7 +3345,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3340,7 +3353,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3348,7 +3361,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>0.02735562310030395</v>
@@ -3356,7 +3369,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3364,7 +3377,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3372,7 +3385,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3380,7 +3393,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3388,7 +3401,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3396,7 +3409,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3404,7 +3417,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>0.03289473684210526</v>
@@ -3412,7 +3425,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3433,7 +3446,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3602,6 +3615,296 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -3611,79 +3914,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3709,13 +4012,13 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5149,16 +5452,16 @@
         <v>5</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>2</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5288,7 +5591,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -5315,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5371,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -5401,19 +5704,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5421,19 +5724,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5441,19 +5744,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5461,19 +5764,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5481,19 +5784,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5501,16 +5804,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>84</v>
@@ -5521,19 +5824,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5541,19 +5844,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5561,19 +5864,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5581,19 +5884,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5601,19 +5904,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5621,19 +5924,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5641,19 +5944,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5661,19 +5964,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5681,19 +5984,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5701,19 +6004,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5721,19 +6024,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5741,19 +6044,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5761,19 +6064,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5781,19 +6084,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5801,19 +6104,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5821,19 +6124,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5841,19 +6144,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5861,19 +6164,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
       <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5881,19 +6184,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5901,19 +6204,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5921,19 +6224,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5941,19 +6244,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5961,19 +6264,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5981,19 +6284,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6001,19 +6304,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
         <v>84</v>
-      </c>
-      <c r="F32" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6024,13 +6327,13 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -6041,19 +6344,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6061,16 +6364,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
         <v>84</v>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -456,89 +456,85 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -548,7 +544,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -558,92 +554,92 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>A2</t>
         </is>
       </c>
     </row>
@@ -655,102 +651,102 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
@@ -762,12 +758,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -782,7 +778,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -797,67 +793,67 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -869,104 +865,100 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -976,27 +968,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1006,22 +998,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1031,47 +1023,47 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1083,32 +1075,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1118,7 +1110,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1128,59 +1120,55 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1190,62 +1178,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1255,37 +1243,37 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -1297,102 +1285,102 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>A2</t>
         </is>
       </c>
     </row>
@@ -1404,102 +1392,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -1511,52 +1499,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1566,47 +1554,47 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -1618,104 +1606,100 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1725,102 +1709,102 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -1832,67 +1816,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1907,27 +1891,27 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1939,72 +1923,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2014,12 +1998,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2029,12 +2013,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2046,102 +2030,102 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2153,72 +2137,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2228,7 +2212,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2238,17 +2222,17 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2265,97 +2249,97 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2367,92 +2351,92 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2462,7 +2446,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2474,97 +2458,97 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2586,17 +2570,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2606,79 +2590,75 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2688,7 +2668,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2698,12 +2678,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2713,17 +2693,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2733,57 +2713,57 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>A5</t>
         </is>
       </c>
     </row>
@@ -2795,12 +2775,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2810,17 +2790,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2830,42 +2810,42 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2875,22 +2855,22 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>O</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2902,17 +2882,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2927,77 +2907,77 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -3009,102 +2989,102 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -3116,27 +3096,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3146,74 +3126,66 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3223,32 +3195,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3258,67 +3230,67 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -3330,102 +3302,102 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -3437,42 +3409,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3482,7 +3454,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3497,42 +3469,42 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3544,102 +3516,102 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>M1</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3651,52 +3623,52 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3706,47 +3678,47 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -3763,97 +3735,97 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>A3</t>
         </is>
       </c>
     </row>
@@ -3865,104 +3837,92 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3972,104 +3932,100 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4104,7 +4060,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4134,7 +4090,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4144,7 +4100,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4154,7 +4110,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -4164,7 +4120,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -4174,7 +4130,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -4184,7 +4140,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4194,7 +4150,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4204,7 +4160,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -4214,7 +4170,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4224,7 +4180,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4234,7 +4190,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -4244,7 +4200,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -4254,7 +4210,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4264,7 +4220,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4274,7 +4230,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4294,7 +4250,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -4304,7 +4260,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -4314,7 +4270,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4324,7 +4280,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -4334,7 +4290,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4354,7 +4310,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -4364,7 +4320,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -4374,7 +4330,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -4404,7 +4360,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4414,7 +4370,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4424,7 +4380,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4434,7 +4390,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4470,7 +4426,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4520,7 +4476,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07304785894206549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4530,7 +4486,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0483271375464684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4550,7 +4506,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00353356890459364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4560,7 +4516,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4620,7 +4576,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02735562310030395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4690,7 +4646,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03289473684210526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4734,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4758,7 +4714,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4798,7 +4754,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4838,7 +4794,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4878,7 +4834,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02850356294536817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5040,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5055,19 +5011,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5085,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -5106,13 +5062,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5280,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5295,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5307,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -5325,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -5346,13 +5302,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5680,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5695,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5707,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -5725,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -5746,13 +5702,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6080,7 +6036,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6095,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -6107,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -6125,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -6146,13 +6102,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6480,7 +6436,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6495,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -6507,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -6525,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -6546,13 +6502,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6642,7 +6598,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6657,19 +6613,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -6687,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -6708,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6761,14 +6717,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>['12:00']</t>
@@ -6776,7 +6732,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6793,27 +6749,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6825,27 +6781,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6813,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6867,17 +6823,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6889,27 +6845,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6921,27 +6877,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6909,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6968,12 +6924,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6985,27 +6941,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7017,7 +6973,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7032,12 +6988,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7005,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7059,17 +7015,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7081,27 +7037,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7113,27 +7069,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7145,27 +7101,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7177,17 +7133,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7197,7 +7153,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7209,27 +7165,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7246,22 +7202,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -7273,27 +7229,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7305,27 +7261,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -7337,27 +7293,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7369,27 +7325,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>['13:30']</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7406,22 +7362,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7433,14 +7389,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>['12:30']</t>
@@ -7448,12 +7404,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7421,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7475,17 +7431,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7453,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7507,17 +7463,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7529,27 +7485,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7561,27 +7517,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['11:30', '12:00']</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7549,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7608,12 +7564,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7625,27 +7581,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7613,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -7672,12 +7628,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7689,27 +7645,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7721,27 +7677,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7763,12 +7719,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['11:30', '13:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -7785,27 +7741,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7817,27 +7773,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -501,40 +501,44 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -574,22 +578,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -599,12 +603,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -614,7 +618,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -634,12 +638,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -701,7 +705,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -726,7 +730,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -746,7 +750,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -763,14 +767,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>O</t>
@@ -778,7 +782,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -848,7 +852,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -880,7 +884,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -895,7 +899,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -905,37 +909,37 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -950,15 +954,19 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1058,12 +1066,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1098,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1115,60 +1123,64 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1178,7 +1190,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1198,24 +1210,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>N1</t>
@@ -1228,7 +1240,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1295,7 +1307,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1330,27 +1342,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1397,7 +1409,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1442,7 +1454,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1477,12 +1489,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1504,7 +1516,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1554,7 +1566,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1594,7 +1606,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1648,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1646,32 +1658,32 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1681,7 +1693,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1691,15 +1703,19 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1714,77 +1730,77 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1846,7 +1862,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1856,27 +1872,27 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1906,12 +1922,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -1928,97 +1944,97 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2030,17 +2046,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2050,29 +2066,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>AS</t>
@@ -2080,7 +2096,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2090,24 +2106,24 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="R17" t="inlineStr">
         <is>
           <t>AS</t>
@@ -2120,12 +2136,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2137,27 +2153,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2167,72 +2183,72 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -2244,67 +2260,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2361,39 +2377,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>W6</t>
@@ -2401,32 +2417,32 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2436,7 +2452,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2570,7 +2586,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2580,7 +2596,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2590,75 +2606,79 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr"/>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2733,7 +2753,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2743,7 +2763,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2753,17 +2773,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2800,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2790,12 +2810,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2805,7 +2825,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2825,32 +2845,32 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>W6</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2917,12 +2937,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2937,7 +2957,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2972,12 +2992,12 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
@@ -2994,24 +3014,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>AS</t>
@@ -3019,7 +3039,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3039,12 +3059,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3079,12 +3099,12 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3096,96 +3116,104 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="R27" t="inlineStr">
         <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3200,7 +3228,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3215,7 +3243,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3270,7 +3298,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3307,7 +3335,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3352,17 +3380,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3372,7 +3400,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3382,7 +3410,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3439,19 +3467,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>AS</t>
@@ -3474,37 +3502,37 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -3516,19 +3544,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>A2</t>
@@ -3541,67 +3569,67 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3611,7 +3639,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -3623,102 +3651,102 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3740,64 +3768,64 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3820,12 +3848,12 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3870,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3877,52 +3905,64 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3932,100 +3972,104 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4080,7 +4124,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4100,7 +4144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4120,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -4140,7 +4184,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4180,7 +4224,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4190,7 +4234,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -4280,7 +4324,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4290,7 +4334,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -4300,7 +4344,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -4310,7 +4354,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -4320,7 +4364,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -4350,7 +4394,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4380,7 +4424,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -4390,7 +4434,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6737,7 +6781,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6803,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6877,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6894,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6897,7 +6941,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6963,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6941,7 +6985,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7089,7 +7133,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7187,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7153,7 +7197,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7229,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7241,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7207,7 +7251,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7229,14 +7273,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7249,7 +7293,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7305,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7271,7 +7315,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -7303,12 +7347,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7362,14 +7406,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>['13:00']</t>
@@ -7377,7 +7421,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7404,12 +7448,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7470,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7436,7 +7480,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7473,7 +7517,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7549,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7517,22 +7561,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -7591,7 +7635,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7633,7 +7677,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7704,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7721,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7692,7 +7736,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7714,22 +7758,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7805,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7773,27 +7817,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>['13:00']</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -486,14 +486,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>CD</t>
@@ -501,44 +501,40 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -578,22 +574,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -603,12 +599,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -618,7 +614,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -638,12 +634,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -705,7 +701,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -730,19 +726,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>W6</t>
@@ -750,7 +746,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -767,12 +763,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -782,7 +778,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -852,7 +848,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -884,7 +880,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -899,7 +895,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -909,37 +905,37 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -954,7 +950,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -962,11 +958,7 @@
           <t>P5</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1066,12 +1058,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1090,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1123,7 +1115,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1133,42 +1125,42 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1176,11 +1168,7 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1190,7 +1178,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1210,7 +1198,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1240,7 +1228,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1307,7 +1295,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1342,27 +1330,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1409,7 +1397,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1454,7 +1442,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1489,12 +1477,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1516,7 +1504,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1566,39 +1554,39 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>MS</t>
@@ -1606,7 +1594,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1636,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1658,32 +1646,32 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1693,7 +1681,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1703,19 +1691,15 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1730,7 +1714,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1750,7 +1734,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1795,12 +1779,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1862,37 +1846,37 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1922,12 +1906,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1928,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1989,7 +1973,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1999,7 +1983,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2029,12 +2013,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2046,72 +2030,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2136,12 +2120,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
@@ -2153,27 +2137,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2183,12 +2167,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2203,7 +2187,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2223,7 +2207,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2238,17 +2222,17 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2260,67 +2244,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2377,72 +2361,72 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2452,7 +2436,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2586,7 +2570,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2596,7 +2580,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2606,7 +2590,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2616,7 +2600,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2636,49 +2620,45 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2753,7 +2733,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2763,7 +2743,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2773,17 +2753,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -2800,77 +2780,77 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2937,34 +2917,34 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>OB</t>
@@ -2992,12 +2972,12 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -3014,7 +2994,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3039,7 +3019,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3059,14 +3039,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3099,12 +3079,12 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AS</t>
         </is>
       </c>
     </row>
@@ -3116,59 +3096,59 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3176,12 +3156,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3191,29 +3171,21 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3228,7 +3200,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3243,7 +3215,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3298,7 +3270,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3335,39 +3307,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>P3</t>
@@ -3380,17 +3352,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3400,7 +3372,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3410,7 +3382,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3467,12 +3439,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3502,37 +3474,37 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3544,14 +3516,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>A5</t>
@@ -3569,19 +3541,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3609,27 +3581,27 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3639,7 +3611,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -3651,17 +3623,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3716,17 +3688,17 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3736,7 +3708,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3746,7 +3718,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -3768,17 +3740,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3788,17 +3760,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3808,7 +3780,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3823,19 +3795,19 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="R33" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3848,12 +3820,12 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>P3</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3842,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3905,64 +3877,52 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3972,52 +3932,52 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4032,17 +3992,17 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -4052,24 +4012,20 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4124,7 +4080,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4144,7 +4100,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4164,7 +4120,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -4184,7 +4140,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4224,7 +4180,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4234,7 +4190,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -4324,7 +4280,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -4334,7 +4290,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4344,7 +4300,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -4354,7 +4310,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -4364,7 +4320,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -4394,7 +4350,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4424,7 +4380,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4434,7 +4390,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6781,7 +6737,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6759,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6813,7 +6769,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6833,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6894,7 +6850,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6941,7 +6897,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6919,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6985,7 +6941,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7133,7 +7089,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7187,17 +7143,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7185,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7241,17 +7197,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7273,27 +7229,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7305,17 +7261,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -7347,12 +7303,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7406,7 +7362,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7421,7 +7377,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7448,12 +7404,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7480,7 +7436,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7517,7 +7473,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7505,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7561,14 +7517,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7576,7 +7532,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -7635,7 +7591,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7677,7 +7633,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7704,12 +7660,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7677,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7736,7 +7692,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7758,12 +7714,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7773,7 +7729,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7761,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
     </row>
@@ -7817,19 +7773,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>['13:00']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7837,7 +7793,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -456,85 +456,89 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>AS</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -544,7 +548,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,92 +558,92 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
@@ -651,102 +655,102 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>
@@ -758,102 +762,102 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>W6</t>
         </is>
       </c>
     </row>
@@ -865,100 +869,104 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -968,102 +976,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>A5</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1075,44 +1083,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>A2</t>
@@ -1120,55 +1128,59 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1178,102 +1190,102 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -1285,102 +1297,102 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
@@ -1392,102 +1404,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>W6</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
@@ -1499,102 +1511,102 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>W6</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>
@@ -1606,100 +1618,104 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1709,102 +1725,102 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -1816,102 +1832,102 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>OB</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>W6</t>
         </is>
       </c>
     </row>
@@ -1923,102 +1939,102 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>W6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2030,102 +2046,102 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>OB</t>
         </is>
       </c>
     </row>
@@ -2137,102 +2153,102 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2249,97 +2265,97 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="T19" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>M1</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2351,92 +2367,92 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2446,7 +2462,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>N1</t>
         </is>
       </c>
     </row>
@@ -2458,82 +2474,82 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2543,12 +2559,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2570,95 +2586,99 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2668,7 +2688,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2678,92 +2698,92 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>AS</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2795,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2790,87 +2810,87 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>C4</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>AS</t>
         </is>
       </c>
     </row>
@@ -2882,102 +2902,102 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>P5</t>
         </is>
       </c>
     </row>
@@ -2989,102 +3009,102 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
@@ -3096,96 +3116,104 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3195,102 +3223,102 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
@@ -3302,39 +3330,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>O</t>
@@ -3342,62 +3370,62 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>W6</t>
         </is>
       </c>
     </row>
@@ -3409,102 +3437,102 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>OB</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3516,102 +3544,102 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -3623,102 +3651,102 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>C3</t>
         </is>
       </c>
     </row>
@@ -3735,89 +3763,89 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="T33" t="inlineStr">
         <is>
           <t>A3</t>
@@ -3825,7 +3853,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
@@ -3837,92 +3865,104 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>W6</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3932,100 +3972,104 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4060,7 +4104,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4090,7 +4134,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4100,7 +4144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4110,7 +4154,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -4120,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4130,7 +4174,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -4140,7 +4184,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -4150,7 +4194,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4160,7 +4204,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -4170,7 +4214,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -4180,7 +4224,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -4190,7 +4234,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4200,7 +4244,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -4210,7 +4254,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -4220,7 +4264,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4230,7 +4274,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -4250,7 +4294,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -4260,7 +4304,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -4270,7 +4314,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -4280,7 +4324,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -4290,7 +4334,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -4310,7 +4354,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -4320,7 +4364,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -4330,7 +4374,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -4360,7 +4404,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4370,7 +4414,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -4380,7 +4424,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4390,7 +4434,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +4470,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="3">
@@ -4476,7 +4520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.07304785894206549</v>
       </c>
     </row>
     <row r="8">
@@ -4486,7 +4530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0483271375464684</v>
       </c>
     </row>
     <row r="9">
@@ -4506,7 +4550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.00353356890459364</v>
       </c>
     </row>
     <row r="11">
@@ -4516,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="12">
@@ -4576,7 +4620,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.02735562310030395</v>
       </c>
     </row>
     <row r="18">
@@ -4646,7 +4690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.03289473684210526</v>
       </c>
     </row>
     <row r="25">
@@ -4690,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="3">
@@ -4714,7 +4758,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="6">
@@ -4754,7 +4798,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="11">
@@ -4794,7 +4838,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="16">
@@ -4834,7 +4878,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.02850356294536817</v>
       </c>
     </row>
     <row r="21">
@@ -4996,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5011,19 +5055,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5041,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -5062,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -5236,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5251,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5263,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -5281,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -5302,13 +5346,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -5636,7 +5680,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5651,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5663,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -5681,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -5702,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -6036,7 +6080,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6051,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -6063,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -6081,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -6102,13 +6146,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -6436,7 +6480,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6451,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -6463,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -6481,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -6502,13 +6546,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -6598,7 +6642,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6613,19 +6657,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -6643,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -6664,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6717,22 +6761,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6749,27 +6793,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6781,27 +6825,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -6813,27 +6857,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
     </row>
@@ -6845,27 +6889,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6877,27 +6921,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>
@@ -6909,12 +6953,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6924,12 +6968,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -6941,27 +6985,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -6973,27 +7017,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7049,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7015,17 +7059,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7037,27 +7081,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:00']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7069,17 +7113,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7089,7 +7133,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7101,27 +7145,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7133,27 +7177,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7165,27 +7209,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7202,22 +7246,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -7229,27 +7273,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7261,27 +7305,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>['11:30', '12:30']</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['12:00']</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -7293,27 +7337,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>['13:00']</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
     </row>
@@ -7325,27 +7369,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['11:30', '13:30']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['13:30']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7362,22 +7406,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7389,27 +7433,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>['11:30', '12:00']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>['11:30', '12:30']</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7465,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7431,17 +7475,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['12:00']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>['13:00']</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7453,27 +7497,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>['12:30']</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7485,27 +7529,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7517,27 +7561,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['13:30']</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7593,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7564,12 +7608,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13:30']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7625,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7596,12 +7640,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['11:30', '12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7613,27 +7657,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['13:30']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>['12:30']</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7645,27 +7689,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['13:30']</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>['12:30']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['11:30']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['11:30']</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['11:30', '12:30']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7677,27 +7721,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30', '12:30']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11:30']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7763,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['11:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -7741,27 +7785,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '12:00']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>['12:00']</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12:00']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:00']</t>
         </is>
       </c>
     </row>
@@ -7773,27 +7817,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['13:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['12:00']</t>
+          <t>['12:30']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>['11:30', '12:30']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>['11:30']</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['12:30']</t>
+          <t>['11:30', '13:30']</t>
         </is>
       </c>
     </row>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -136,48 +136,48 @@
     <t>A3</t>
   </si>
   <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -277,25 +277,25 @@
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
-    <t>['13:30']</t>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
   </si>
 </sst>
 </file>
@@ -732,22 +732,22 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
@@ -756,10 +756,10 @@
         <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
         <v>37</v>
@@ -800,55 +800,55 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -865,19 +865,19 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -886,34 +886,34 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
         <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -924,31 +924,31 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
         <v>37</v>
@@ -966,19 +966,19 @@
         <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -992,7 +992,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1004,7 +1004,7 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
@@ -1016,13 +1016,13 @@
         <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
         <v>37</v>
@@ -1031,16 +1031,16 @@
         <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
         <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
         <v>48</v>
@@ -1051,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -1069,7 +1069,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -1081,19 +1081,19 @@
         <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q7" t="s">
         <v>37</v>
@@ -1102,13 +1102,13 @@
         <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1116,64 +1116,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
         <v>35</v>
       </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
         <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1181,64 +1181,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
       <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1246,64 +1246,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
         <v>52</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1311,28 +1311,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1341,34 +1341,34 @@
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1379,10 +1379,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1391,16 +1391,16 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
@@ -1409,7 +1409,7 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
         <v>37</v>
@@ -1418,16 +1418,16 @@
         <v>35</v>
       </c>
       <c r="P12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" t="s">
-        <v>51</v>
-      </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
         <v>36</v>
@@ -1441,64 +1441,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1506,40 +1506,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
@@ -1548,16 +1548,16 @@
         <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
         <v>37</v>
@@ -1571,40 +1571,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
         <v>48</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N15" t="s">
         <v>48</v>
@@ -1613,22 +1613,22 @@
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
         <v>37</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1642,55 +1642,55 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
       <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
         <v>35</v>
@@ -1704,13 +1704,13 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -1719,46 +1719,46 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
         <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q17" t="s">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1769,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1778,52 +1778,52 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
         <v>35</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1831,52 +1831,52 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
         <v>52</v>
@@ -1885,10 +1885,10 @@
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1896,43 +1896,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
       <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
         <v>50</v>
-      </c>
-      <c r="N20" t="s">
-        <v>46</v>
       </c>
       <c r="O20" t="s">
         <v>35</v>
@@ -1953,7 +1953,7 @@
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1961,58 +1961,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" t="s">
-        <v>47</v>
-      </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s">
         <v>35</v>
@@ -2029,25 +2029,25 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s">
         <v>37</v>
@@ -2059,31 +2059,31 @@
         <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Q22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" t="s">
         <v>34</v>
       </c>
-      <c r="S22" t="s">
-        <v>37</v>
-      </c>
       <c r="T22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2100,49 +2100,49 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
         <v>49</v>
       </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R23" t="s">
-        <v>51</v>
-      </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
         <v>37</v>
@@ -2156,10 +2156,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -2168,52 +2168,52 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" t="s">
         <v>35</v>
       </c>
-      <c r="P24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" t="s">
-        <v>37</v>
-      </c>
       <c r="U24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2221,7 +2221,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2233,52 +2233,52 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
         <v>35</v>
       </c>
       <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s">
         <v>41</v>
-      </c>
-      <c r="N25" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>50</v>
-      </c>
-      <c r="R25" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" t="s">
-        <v>37</v>
-      </c>
-      <c r="U25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2286,13 +2286,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -2301,49 +2301,49 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
         <v>35</v>
       </c>
       <c r="Q26" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2351,16 +2351,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -2369,46 +2369,46 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
         <v>50</v>
       </c>
-      <c r="J27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" t="s">
         <v>50</v>
-      </c>
-      <c r="M27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" t="s">
-        <v>42</v>
-      </c>
-      <c r="U27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2416,64 +2416,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
         <v>50</v>
       </c>
-      <c r="L28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" t="s">
-        <v>38</v>
-      </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" t="s">
         <v>39</v>
-      </c>
-      <c r="P28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" t="s">
-        <v>35</v>
-      </c>
-      <c r="U28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2481,64 +2481,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2546,25 +2546,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
         <v>37</v>
@@ -2573,37 +2573,37 @@
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s">
         <v>35</v>
       </c>
       <c r="U30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2611,64 +2611,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
         <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="O31" t="s">
         <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s">
         <v>37</v>
       </c>
       <c r="T31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2679,61 +2679,61 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T32" t="s">
         <v>37</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2741,37 +2741,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s">
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
@@ -2780,25 +2780,25 @@
         <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2806,7 +2806,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -2815,13 +2815,13 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
@@ -2830,16 +2830,16 @@
         <v>37</v>
       </c>
       <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
         <v>35</v>
       </c>
-      <c r="K34" t="s">
-        <v>40</v>
-      </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
@@ -2851,19 +2851,19 @@
         <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R34" t="s">
         <v>36</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2871,13 +2871,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -2886,22 +2886,22 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M35" t="s">
         <v>36</v>
@@ -2913,16 +2913,16 @@
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
         <v>37</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3292,7 @@
         <v>61</v>
       </c>
       <c r="B8">
-        <v>0.0483271375464684</v>
+        <v>0.02973977695167286</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0176678445229682</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4012,13 +4012,13 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4652,13 +4652,13 @@
         <v>6</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -5052,13 +5052,13 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5452,13 +5452,13 @@
         <v>5</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5612,13 +5612,13 @@
         <v>29</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -5707,13 +5707,13 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -5727,16 +5727,16 @@
         <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5753,7 +5753,7 @@
         <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>82</v>
@@ -5796,7 +5796,7 @@
         <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5827,16 +5827,16 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5844,10 +5844,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
@@ -5856,7 +5856,7 @@
         <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5864,19 +5864,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5884,19 +5884,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5904,7 +5904,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>83</v>
@@ -5913,7 +5913,7 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -5924,19 +5924,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5947,7 +5947,7 @@
         <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
@@ -5964,13 +5964,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
@@ -5987,16 +5987,16 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6016,7 +6016,7 @@
         <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6030,10 +6030,10 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>83</v>
@@ -6044,19 +6044,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6064,13 +6064,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
@@ -6084,13 +6084,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
@@ -6107,16 +6107,16 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
         <v>84</v>
       </c>
       <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
         <v>84</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6127,13 +6127,13 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -6147,16 +6147,16 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6167,10 +6167,10 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>85</v>
@@ -6184,7 +6184,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
@@ -6193,10 +6193,10 @@
         <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6204,19 +6204,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6224,19 +6224,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6244,7 +6244,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>84</v>
@@ -6253,10 +6253,10 @@
         <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6264,7 +6264,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>84</v>
@@ -6276,7 +6276,7 @@
         <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6284,19 +6284,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
         <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6304,13 +6304,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
         <v>89</v>
@@ -6330,10 +6330,10 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -6347,10 +6347,10 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
         <v>84</v>
@@ -6364,7 +6364,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>84</v>
@@ -6373,7 +6373,7 @@
         <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
         <v>84</v>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="108">
   <si>
     <t>Abe</t>
   </si>
@@ -127,28 +127,58 @@
     <t>O</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>OB</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
+    <t>P3</t>
   </si>
   <si>
     <t>W6</t>
   </si>
   <si>
-    <t>N1</t>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
   <si>
     <t>NightWork_count</t>
@@ -241,31 +271,79 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
     <t>['12:30']</t>
   </si>
   <si>
     <t>['12:00']</t>
   </si>
   <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
     <t>['13:00']</t>
   </si>
   <si>
-    <t>['11:30']</t>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
   </si>
   <si>
     <t>['12:00', '12:30']</t>
   </si>
   <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
+    <t>['12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -699,61 +777,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -761,64 +839,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -826,64 +904,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -891,64 +969,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -956,64 +1034,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1021,64 +1099,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1086,64 +1164,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1151,64 +1229,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1216,64 +1294,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1284,61 +1362,61 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1346,16 +1424,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -1364,46 +1442,46 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
         <v>35</v>
       </c>
-      <c r="P12" t="s">
-        <v>34</v>
-      </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1411,64 +1489,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
       <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
         <v>35</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="T13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1476,64 +1554,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1541,64 +1619,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" t="s">
-        <v>34</v>
-      </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1606,64 +1684,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1671,64 +1749,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q17" t="s">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1736,61 +1814,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
@@ -1801,64 +1879,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1866,64 +1944,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1931,61 +2009,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
         <v>34</v>
@@ -1999,61 +2077,61 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2061,64 +2139,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2126,64 +2204,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" t="s">
         <v>35</v>
       </c>
-      <c r="M24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" t="s">
-        <v>34</v>
-      </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2191,64 +2269,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U25" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2256,64 +2334,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2321,64 +2399,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="U27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2386,64 +2464,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N28" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2451,64 +2529,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R29" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2516,64 +2594,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2581,64 +2659,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P31" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q31" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2646,64 +2724,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P32" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q32" t="s">
         <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="U32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2711,64 +2789,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q33" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2776,64 +2854,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q34" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="T34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2841,64 +2919,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" t="s">
         <v>39</v>
       </c>
-      <c r="I35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" t="s">
-        <v>34</v>
-      </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="R35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U35" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2924,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2932,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2940,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2948,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2956,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2964,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2972,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2980,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2988,7 +3066,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2996,7 +3074,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3004,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3012,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3020,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3028,7 +3106,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3036,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3044,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3052,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3060,7 +3138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3068,7 +3146,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3076,7 +3154,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3084,7 +3162,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3092,7 +3170,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3100,7 +3178,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3108,7 +3186,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3116,7 +3194,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3124,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3132,7 +3210,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3148,7 +3226,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3156,7 +3234,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3164,7 +3242,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3172,7 +3250,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3180,7 +3258,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3188,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3206,199 +3284,199 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>0.9516129032258065</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>0.9462915601023018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>0.9501187648456056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>0.9497607655502392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>0.948905109489051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.07304785894206549</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.0483271375464684</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.907258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9187279151943463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>0.9376693766937669</v>
+        <v>0.02710027100271003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>0.941025641025641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>0.943069306930693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>0.9366391184573003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B15">
-        <v>0.9373297002724795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>0.9335260115606936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.02735562310030395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>0.8977777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B20">
-        <v>0.8622754491017964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B21">
-        <v>0.8391608391608392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0.847682119205298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>0.8445945945945946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>0.8486842105263158</v>
+        <v>0.03289473684210526</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>0.8296296296296296</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3494,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3424,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9524940617577197</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3432,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3440,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.943342776203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3448,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9168646080760094</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3456,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.9444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3464,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.943342776203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3472,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.937888198757764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3480,7 +3558,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.9371069182389937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3488,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9524940617577197</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3496,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3504,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.943342776203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3512,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.937888198757764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3520,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.9371069182389937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3528,7 +3606,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.9049881235154394</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3536,7 +3614,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.9444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3544,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.943342776203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3552,7 +3630,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.937888198757764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3560,7 +3638,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.9371069182389937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3568,7 +3646,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.9168646080760094</v>
+        <v>0.02850356294536817</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3576,7 +3654,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.9444444444444444</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3672,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3602,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3610,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3618,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3626,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3634,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3642,7 +3720,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3650,7 +3728,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3658,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3666,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3674,7 +3752,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3682,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3690,7 +3768,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3698,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3706,7 +3784,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3714,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3722,7 +3800,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3730,7 +3808,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3738,7 +3816,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3746,7 +3824,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3754,7 +3832,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3762,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3770,7 +3848,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3778,7 +3856,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3786,7 +3864,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3794,7 +3872,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3802,7 +3880,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3810,7 +3888,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3818,7 +3896,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3826,7 +3904,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3834,7 +3912,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3842,7 +3920,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3850,7 +3928,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3858,7 +3936,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3866,7 +3944,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3884,79 +3962,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3964,79 +4042,79 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>17</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>22</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>17</v>
-      </c>
-      <c r="P2">
-        <v>19</v>
-      </c>
-      <c r="Q2">
-        <v>20</v>
-      </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <v>10</v>
-      </c>
-      <c r="T2">
-        <v>9</v>
-      </c>
-      <c r="U2">
-        <v>7</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>7</v>
-      </c>
-      <c r="X2">
-        <v>8</v>
-      </c>
-      <c r="Y2">
-        <v>7</v>
-      </c>
-      <c r="Z2">
-        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4044,79 +4122,79 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4124,79 +4202,79 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4204,79 +4282,79 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>17</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>21</v>
-      </c>
-      <c r="N5">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>16</v>
-      </c>
-      <c r="P5">
-        <v>18</v>
-      </c>
-      <c r="Q5">
-        <v>20</v>
-      </c>
-      <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="S5">
-        <v>9</v>
-      </c>
-      <c r="T5">
-        <v>8</v>
-      </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>6</v>
-      </c>
-      <c r="W5">
-        <v>6</v>
-      </c>
-      <c r="X5">
-        <v>7</v>
-      </c>
-      <c r="Y5">
-        <v>6</v>
-      </c>
-      <c r="Z5">
-        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4284,79 +4362,79 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4364,79 +4442,79 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4444,79 +4522,79 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4524,79 +4602,79 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4604,79 +4682,79 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>17</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>16</v>
-      </c>
-      <c r="K10">
-        <v>22</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>17</v>
-      </c>
-      <c r="P10">
-        <v>19</v>
-      </c>
-      <c r="Q10">
-        <v>20</v>
-      </c>
-      <c r="R10">
-        <v>16</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>9</v>
-      </c>
-      <c r="U10">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>7</v>
-      </c>
-      <c r="X10">
-        <v>8</v>
-      </c>
-      <c r="Y10">
-        <v>7</v>
-      </c>
-      <c r="Z10">
-        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4684,79 +4762,79 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4764,79 +4842,79 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4844,79 +4922,79 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4924,79 +5002,79 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5004,79 +5082,79 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>17</v>
-      </c>
-      <c r="I15">
-        <v>11</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>21</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>21</v>
-      </c>
-      <c r="N15">
-        <v>19</v>
-      </c>
-      <c r="O15">
-        <v>16</v>
-      </c>
-      <c r="P15">
-        <v>18</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
-      </c>
-      <c r="R15">
-        <v>16</v>
-      </c>
-      <c r="S15">
-        <v>9</v>
-      </c>
-      <c r="T15">
-        <v>8</v>
-      </c>
-      <c r="U15">
-        <v>6</v>
-      </c>
-      <c r="V15">
-        <v>6</v>
-      </c>
-      <c r="W15">
-        <v>6</v>
-      </c>
-      <c r="X15">
-        <v>7</v>
-      </c>
-      <c r="Y15">
-        <v>6</v>
-      </c>
-      <c r="Z15">
-        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5084,79 +5162,79 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5164,79 +5242,79 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5244,79 +5322,79 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5324,79 +5402,79 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5404,79 +5482,79 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>386</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5484,159 +5562,159 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>397</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="I22">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>346</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>329</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>6787</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5674,19 +5752,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5694,19 +5772,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5714,19 +5792,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5734,19 +5812,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5754,19 +5832,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5774,19 +5852,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5794,19 +5872,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5814,19 +5892,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5834,19 +5912,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5854,19 +5932,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5874,19 +5952,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5894,19 +5972,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5914,19 +5992,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5934,19 +6012,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5954,19 +6032,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5974,19 +6052,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5994,19 +6072,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6014,19 +6092,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6034,19 +6112,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6054,19 +6132,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6074,19 +6152,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6094,19 +6172,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6114,19 +6192,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6134,19 +6212,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6154,19 +6232,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6174,19 +6252,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6194,19 +6272,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6214,19 +6292,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6234,19 +6312,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6254,19 +6332,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6274,19 +6352,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6294,19 +6372,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6314,19 +6392,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6334,19 +6412,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="92">
   <si>
     <t>Abe</t>
   </si>
@@ -133,33 +133,36 @@
     <t>A3</t>
   </si>
   <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>OB</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -169,15 +172,12 @@
     <t>MS</t>
   </si>
   <si>
-    <t>P2</t>
+    <t>P4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -277,73 +277,25 @@
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
     <t>['11:30', '12:30']</t>
   </si>
   <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
     <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -777,61 +729,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -848,55 +800,55 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
         <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -907,55 +859,55 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
         <v>36</v>
@@ -969,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -984,49 +936,49 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1034,64 +986,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1099,64 +1051,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
       </c>
       <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" t="s">
-        <v>40</v>
-      </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1164,19 +1116,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -1185,43 +1137,43 @@
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1229,64 +1181,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
         <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1294,64 +1246,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" t="s">
         <v>41</v>
       </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>36</v>
-      </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s">
         <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1359,28 +1311,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1389,34 +1341,34 @@
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
         <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1427,31 +1379,31 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -1460,25 +1412,25 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
         <v>44</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" t="s">
-        <v>41</v>
       </c>
       <c r="U12" t="s">
         <v>35</v>
@@ -1489,34 +1441,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
@@ -1525,28 +1477,28 @@
         <v>34</v>
       </c>
       <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" t="s">
         <v>47</v>
       </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="U13" t="s">
         <v>35</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1557,61 +1509,61 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
       <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>39</v>
-      </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
         <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1619,64 +1571,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
         <v>47</v>
       </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>41</v>
-      </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S15" t="s">
         <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1684,64 +1636,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
         <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1749,46 +1701,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
         <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
         <v>48</v>
@@ -1797,16 +1749,16 @@
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1817,61 +1769,61 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" t="s">
-        <v>36</v>
-      </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1882,52 +1834,52 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" t="s">
         <v>41</v>
       </c>
-      <c r="K19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>52</v>
-      </c>
       <c r="R19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
@@ -1936,7 +1888,7 @@
         <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1947,61 +1899,61 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" t="s">
         <v>35</v>
       </c>
-      <c r="P20" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" t="s">
-        <v>47</v>
-      </c>
       <c r="S20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2009,58 +1961,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" t="s">
         <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" t="s">
-        <v>40</v>
       </c>
       <c r="Q21" t="s">
         <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="T21" t="s">
         <v>35</v>
@@ -2080,58 +2032,58 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
         <v>49</v>
       </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
         <v>41</v>
       </c>
-      <c r="K22" t="s">
-        <v>40</v>
-      </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
         <v>47</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2145,58 +2097,58 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" t="s">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>41</v>
       </c>
-      <c r="P23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>49</v>
-      </c>
       <c r="R23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S23" t="s">
         <v>38</v>
       </c>
       <c r="T23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2204,10 +2156,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -2216,52 +2168,52 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
         <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
         <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2269,64 +2221,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" t="s">
         <v>47</v>
       </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" t="s">
-        <v>50</v>
-      </c>
-      <c r="O25" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="T25" t="s">
         <v>45</v>
       </c>
-      <c r="Q25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25" t="s">
-        <v>50</v>
-      </c>
-      <c r="T25" t="s">
-        <v>35</v>
-      </c>
       <c r="U25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2334,13 +2286,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -2349,13 +2301,13 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
@@ -2364,34 +2316,34 @@
         <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O26" t="s">
         <v>35</v>
       </c>
       <c r="P26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s">
         <v>39</v>
       </c>
       <c r="S26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2399,43 +2351,43 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
         <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>48</v>
       </c>
       <c r="J27" t="s">
         <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O27" t="s">
         <v>36</v>
@@ -2444,19 +2396,19 @@
         <v>36</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R27" t="s">
         <v>36</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2464,64 +2416,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q28" t="s">
         <v>47</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2529,64 +2481,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s">
         <v>47</v>
       </c>
-      <c r="O29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" t="s">
-        <v>50</v>
-      </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s">
         <v>40</v>
-      </c>
-      <c r="U29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2597,46 +2549,46 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
         <v>36</v>
@@ -2645,13 +2597,13 @@
         <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2659,7 +2611,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -2671,52 +2623,52 @@
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
         <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O31" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s">
         <v>49</v>
-      </c>
-      <c r="R31" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" t="s">
-        <v>48</v>
-      </c>
-      <c r="T31" t="s">
-        <v>39</v>
-      </c>
-      <c r="U31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2724,64 +2676,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s">
         <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
         <v>48</v>
       </c>
       <c r="O32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q32" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2789,64 +2741,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" t="s">
         <v>40</v>
-      </c>
-      <c r="L33" t="s">
-        <v>39</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O33" t="s">
         <v>35</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2854,37 +2806,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
         <v>47</v>
@@ -2896,22 +2848,22 @@
         <v>35</v>
       </c>
       <c r="P34" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R34" t="s">
         <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2919,64 +2871,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
         <v>47</v>
       </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S35" t="s">
         <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="U35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3018,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3026,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3050,7 +3002,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3058,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3098,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3114,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3122,7 +3074,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3138,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3146,7 +3098,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3154,7 +3106,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3162,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3178,7 +3130,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3186,7 +3138,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3194,7 +3146,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3226,7 +3178,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3234,7 +3186,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3258,7 +3210,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3784,7 +3736,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3872,7 +3824,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5755,16 +5707,16 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5775,16 +5727,16 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5795,13 +5747,13 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>84</v>
@@ -5818,13 +5770,13 @@
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5832,19 +5784,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5852,19 +5804,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5872,19 +5824,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5892,16 +5844,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
         <v>84</v>
@@ -5912,16 +5864,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -5935,16 +5887,16 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>83</v>
       </c>
       <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
         <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5952,19 +5904,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5972,19 +5924,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5995,13 +5947,13 @@
         <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -6012,19 +5964,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6035,16 +5987,16 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6052,19 +6004,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6075,16 +6027,16 @@
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
         <v>84</v>
       </c>
       <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6095,13 +6047,13 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
       </c>
       <c r="F19" t="s">
         <v>84</v>
@@ -6115,13 +6067,13 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -6132,16 +6084,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -6155,16 +6107,16 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6175,16 +6127,16 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6192,7 +6144,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -6201,10 +6153,10 @@
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6215,16 +6167,16 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6232,19 +6184,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
       </c>
       <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
         <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6252,19 +6204,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6272,19 +6224,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6292,19 +6244,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
         <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6315,16 +6267,16 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6338,13 +6290,13 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6352,19 +6304,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6372,19 +6324,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
       <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
         <v>87</v>
-      </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6392,19 +6344,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
         <v>84</v>
       </c>
       <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
         <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6415,16 +6367,16 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="98">
   <si>
     <t>Abe</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Daphne</t>
+    <t>Elaine</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -58,7 +55,10 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Irene</t>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Jane</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,6 +76,9 @@
     <t>Karen</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Oscar</t>
   </si>
   <si>
+    <t>Patty</t>
+  </si>
+  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -109,78 +115,98 @@
     <t>Sandy</t>
   </si>
   <si>
-    <t>Sharon</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer </t>
-  </si>
-  <si>
-    <t>Vivian</t>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Vivian
+Huang</t>
+  </si>
+  <si>
+    <t>Vivian
+Kuang</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
     <t>N1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
     <t>P5</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -274,28 +300,22 @@
     <t>['11:30']</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
     <t>['13:30']</t>
   </si>
   <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
     <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
   </si>
 </sst>
 </file>
@@ -653,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,52 +746,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -780,10 +800,10 @@
         <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -791,64 +811,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
         <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -856,64 +876,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
         <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
         <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -921,64 +941,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" t="s">
-        <v>35</v>
-      </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -986,64 +1006,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1051,64 +1071,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1116,64 +1136,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
         <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1181,61 +1201,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" t="s">
-        <v>42</v>
-      </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
         <v>48</v>
@@ -1246,64 +1266,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="T10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1311,64 +1331,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1376,64 +1396,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
       <c r="M12" t="s">
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q12" t="s">
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1441,64 +1461,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
         <v>42</v>
       </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
         <v>48</v>
       </c>
       <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="S13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" t="s">
-        <v>47</v>
-      </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1506,64 +1526,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="U14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1571,64 +1591,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U15" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1636,64 +1656,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s">
         <v>52</v>
       </c>
-      <c r="S16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" t="s">
-        <v>35</v>
-      </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1701,64 +1721,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
         <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1766,64 +1786,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" t="s">
-        <v>34</v>
-      </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1831,64 +1851,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
         <v>42</v>
       </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" t="s">
-        <v>34</v>
-      </c>
       <c r="T19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1896,64 +1916,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1961,64 +1981,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2026,64 +2046,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P22" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Q22" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="R22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2091,10 +2111,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -2109,46 +2129,46 @@
         <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N23" t="s">
         <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2156,64 +2176,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2221,64 +2241,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
         <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2286,64 +2306,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="Q26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2351,64 +2371,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
         <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2416,64 +2436,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="P28" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2481,64 +2501,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" t="s">
         <v>49</v>
       </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" t="s">
-        <v>36</v>
-      </c>
       <c r="Q29" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2546,64 +2566,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P30" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Q30" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
         <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2614,61 +2634,61 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s">
         <v>45</v>
       </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="Q31" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" t="s">
         <v>45</v>
       </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" t="s">
-        <v>49</v>
-      </c>
-      <c r="M31" t="s">
-        <v>49</v>
-      </c>
-      <c r="N31" t="s">
-        <v>49</v>
-      </c>
-      <c r="O31" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>42</v>
-      </c>
-      <c r="R31" t="s">
-        <v>42</v>
-      </c>
       <c r="S31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T31" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2676,64 +2696,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" t="s">
         <v>42</v>
       </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" t="s">
-        <v>34</v>
-      </c>
       <c r="M32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>48</v>
+      </c>
+      <c r="R32" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" t="s">
         <v>43</v>
       </c>
-      <c r="N32" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>48</v>
-      </c>
-      <c r="R32" t="s">
-        <v>42</v>
-      </c>
-      <c r="S32" t="s">
-        <v>48</v>
-      </c>
-      <c r="T32" t="s">
-        <v>41</v>
-      </c>
       <c r="U32" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2741,64 +2761,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" t="s">
-        <v>34</v>
-      </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O33" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q33" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2806,64 +2826,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q34" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2871,64 +2891,584 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" t="s">
+        <v>55</v>
+      </c>
+      <c r="S35" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" t="s">
+        <v>49</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>42</v>
+      </c>
+      <c r="R36" t="s">
+        <v>48</v>
+      </c>
+      <c r="S36" t="s">
+        <v>42</v>
+      </c>
+      <c r="T36" t="s">
+        <v>59</v>
+      </c>
+      <c r="U36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" t="s">
+        <v>50</v>
+      </c>
+      <c r="U37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" t="s">
+        <v>48</v>
+      </c>
+      <c r="P39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" t="s">
+        <v>48</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="K35" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" t="s">
         <v>42</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N42" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
+        <v>51</v>
+      </c>
+      <c r="S42" t="s">
+        <v>51</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="O35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>49</v>
-      </c>
-      <c r="R35" t="s">
-        <v>49</v>
-      </c>
-      <c r="S35" t="s">
-        <v>48</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" t="s">
         <v>42</v>
       </c>
-      <c r="U35" t="s">
-        <v>42</v>
+      <c r="S43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T43" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +3478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2946,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2954,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2962,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2970,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2978,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2986,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2994,7 +3534,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3002,7 +3542,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3010,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3018,7 +3558,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3026,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3034,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3042,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3050,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3058,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3066,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3074,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3082,7 +3622,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3090,7 +3630,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3098,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3106,7 +3646,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3114,7 +3654,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3122,7 +3662,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3130,7 +3670,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3138,7 +3678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3146,7 +3686,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3154,7 +3694,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3162,7 +3702,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3170,7 +3710,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3178,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3186,7 +3726,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3194,7 +3734,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3202,7 +3742,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3218,7 +3758,71 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3236,20 +3840,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3257,7 +3861,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3265,7 +3869,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3273,7 +3877,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3281,23 +3885,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>0.07304785894206549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>0.0483271375464684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3305,7 +3909,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3313,15 +3917,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>0.02710027100271003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3329,7 +3933,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3337,7 +3941,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3345,7 +3949,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3353,7 +3957,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3361,15 +3965,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>0.02735562310030395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3377,7 +3981,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3385,7 +3989,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3393,7 +3997,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3401,7 +4005,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3409,7 +4013,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3417,15 +4021,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>0.03289473684210526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3446,7 +4050,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3454,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3478,7 +4082,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3518,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3558,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.04038004750593824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3598,7 +4202,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.02850356294536817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3616,7 +4220,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3624,7 +4228,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3632,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3640,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3656,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3664,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3672,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3680,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3688,7 +4292,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3696,7 +4300,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3704,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3712,7 +4316,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3720,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3728,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3736,7 +4340,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3744,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3752,7 +4356,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3760,7 +4364,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3768,7 +4372,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3776,7 +4380,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3784,7 +4388,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3792,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3800,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3808,7 +4412,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3816,7 +4420,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3824,7 +4428,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3832,7 +4436,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3840,7 +4444,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3848,7 +4452,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3856,7 +4460,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3864,7 +4468,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3872,7 +4476,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3880,7 +4484,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3888,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3896,7 +4500,71 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3914,79 +4582,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3994,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4009,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4021,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4039,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4060,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4234,7 +4902,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4249,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4261,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4279,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4300,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4634,7 +5302,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4649,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4661,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4679,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -4700,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5034,7 +5702,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5049,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5061,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5079,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5100,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5434,7 +6102,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5449,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5461,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5479,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -5500,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5591,10 +6259,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5609,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5621,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5639,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -5660,13 +6328,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +6344,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5704,19 +6372,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5724,19 +6392,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5744,19 +6412,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5764,19 +6432,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5784,19 +6452,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5804,19 +6472,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5824,19 +6492,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5844,19 +6512,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5864,19 +6532,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5884,19 +6552,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5904,19 +6572,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5924,19 +6592,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5944,19 +6612,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5964,19 +6632,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5984,19 +6652,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6004,19 +6672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6024,19 +6692,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6044,19 +6712,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6064,19 +6732,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6084,19 +6752,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6104,19 +6772,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6124,19 +6792,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6144,19 +6812,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6164,19 +6832,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6184,19 +6852,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6204,19 +6872,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6224,19 +6892,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6244,19 +6912,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6264,19 +6932,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6284,19 +6952,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6304,19 +6972,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6324,19 +6992,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6344,19 +7012,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6364,19 +7032,179 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -340,13 +340,13 @@
     <t>N1</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>OB</t>
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>CD</t>
@@ -1011,7 +1011,7 @@
         <v>117</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
         <v>105</v>
@@ -1044,7 +1044,7 @@
         <v>110</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC2" t="s">
         <v>117</v>
@@ -1133,16 +1133,16 @@
         <v>101</v>
       </c>
       <c r="Y3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Z3" t="s">
         <v>101</v>
       </c>
       <c r="AA3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="s">
         <v>117</v>
@@ -1189,13 +1189,13 @@
         <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
         <v>101</v>
@@ -1210,16 +1210,16 @@
         <v>104</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="V4" t="s">
         <v>117</v>
@@ -1231,7 +1231,7 @@
         <v>112</v>
       </c>
       <c r="Y4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z4" t="s">
         <v>109</v>
@@ -1269,7 +1269,7 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
         <v>117</v>
@@ -1305,13 +1305,13 @@
         <v>117</v>
       </c>
       <c r="Q5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T5" t="s">
         <v>113</v>
@@ -1329,16 +1329,16 @@
         <v>116</v>
       </c>
       <c r="Y5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AB5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC5" t="s">
         <v>117</v>
@@ -1347,10 +1347,10 @@
         <v>117</v>
       </c>
       <c r="AE5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1382,7 +1382,7 @@
         <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
         <v>100</v>
@@ -1394,7 +1394,7 @@
         <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
         <v>117</v>
@@ -1415,7 +1415,7 @@
         <v>101</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V6" t="s">
         <v>117</v>
@@ -1462,7 +1462,7 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -1489,10 +1489,10 @@
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
         <v>117</v>
@@ -1522,7 +1522,7 @@
         <v>117</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="s">
         <v>101</v>
@@ -1543,7 +1543,7 @@
         <v>117</v>
       </c>
       <c r="AE7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s">
         <v>110</v>
@@ -1560,10 +1560,10 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
         <v>117</v>
@@ -1605,13 +1605,13 @@
         <v>116</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T8" t="s">
         <v>116</v>
       </c>
       <c r="U8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V8" t="s">
         <v>117</v>
@@ -1632,7 +1632,7 @@
         <v>114</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
         <v>117</v>
@@ -1644,7 +1644,7 @@
         <v>101</v>
       </c>
       <c r="AF8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1774,19 +1774,19 @@
         <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
         <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
         <v>112</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
         <v>117</v>
@@ -1798,16 +1798,16 @@
         <v>100</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V10" t="s">
         <v>117</v>
@@ -1851,10 +1851,10 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>104</v>
@@ -1884,7 +1884,7 @@
         <v>113</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
         <v>117</v>
@@ -1899,7 +1899,7 @@
         <v>100</v>
       </c>
       <c r="S11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="T11" t="s">
         <v>114</v>
@@ -1923,7 +1923,7 @@
         <v>101</v>
       </c>
       <c r="AA11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="s">
         <v>104</v>
@@ -1949,7 +1949,7 @@
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>101</v>
@@ -1991,7 +1991,7 @@
         <v>117</v>
       </c>
       <c r="Q12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="R12" t="s">
         <v>113</v>
@@ -2000,10 +2000,10 @@
         <v>100</v>
       </c>
       <c r="T12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="U12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="V12" t="s">
         <v>117</v>
@@ -2021,7 +2021,7 @@
         <v>113</v>
       </c>
       <c r="AA12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB12" t="s">
         <v>113</v>
@@ -2053,7 +2053,7 @@
         <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
         <v>117</v>
@@ -2077,7 +2077,7 @@
         <v>116</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s">
         <v>112</v>
@@ -2095,7 +2095,7 @@
         <v>114</v>
       </c>
       <c r="S13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="T13" t="s">
         <v>100</v>
@@ -2131,10 +2131,10 @@
         <v>117</v>
       </c>
       <c r="AE13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2145,10 +2145,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>113</v>
@@ -2211,7 +2211,7 @@
         <v>105</v>
       </c>
       <c r="Y14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z14" t="s">
         <v>110</v>
@@ -2243,7 +2243,7 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -2273,7 +2273,7 @@
         <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="N15" t="s">
         <v>101</v>
@@ -2294,7 +2294,7 @@
         <v>104</v>
       </c>
       <c r="T15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U15" t="s">
         <v>113</v>
@@ -2309,13 +2309,13 @@
         <v>100</v>
       </c>
       <c r="Y15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Z15" t="s">
         <v>114</v>
       </c>
       <c r="AA15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AB15" t="s">
         <v>114</v>
@@ -2327,10 +2327,10 @@
         <v>117</v>
       </c>
       <c r="AE15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2341,13 +2341,13 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -2386,7 +2386,7 @@
         <v>112</v>
       </c>
       <c r="R16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S16" t="s">
         <v>113</v>
@@ -2395,7 +2395,7 @@
         <v>116</v>
       </c>
       <c r="U16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V16" t="s">
         <v>117</v>
@@ -2413,7 +2413,7 @@
         <v>114</v>
       </c>
       <c r="AA16" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AB16" t="s">
         <v>114</v>
@@ -2425,7 +2425,7 @@
         <v>117</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF16" t="s">
         <v>101</v>
@@ -2460,13 +2460,13 @@
         <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M17" t="s">
         <v>101</v>
@@ -2481,19 +2481,19 @@
         <v>117</v>
       </c>
       <c r="Q17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R17" t="s">
         <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V17" t="s">
         <v>117</v>
@@ -2537,13 +2537,13 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
         <v>117</v>
@@ -2558,10 +2558,10 @@
         <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
         <v>109</v>
@@ -2579,7 +2579,7 @@
         <v>117</v>
       </c>
       <c r="Q18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R18" t="s">
         <v>109</v>
@@ -2588,10 +2588,10 @@
         <v>109</v>
       </c>
       <c r="T18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V18" t="s">
         <v>117</v>
@@ -2606,13 +2606,13 @@
         <v>101</v>
       </c>
       <c r="Z18" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AA18" t="s">
         <v>100</v>
       </c>
       <c r="AB18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC18" t="s">
         <v>117</v>
@@ -2641,7 +2641,7 @@
         <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2677,7 +2677,7 @@
         <v>117</v>
       </c>
       <c r="Q19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R19" t="s">
         <v>101</v>
@@ -2698,7 +2698,7 @@
         <v>117</v>
       </c>
       <c r="X19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y19" t="s">
         <v>101</v>
@@ -2719,7 +2719,7 @@
         <v>117</v>
       </c>
       <c r="AE19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AF19" t="s">
         <v>101</v>
@@ -2775,7 +2775,7 @@
         <v>117</v>
       </c>
       <c r="Q20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R20" t="s">
         <v>112</v>
@@ -2802,7 +2802,7 @@
         <v>103</v>
       </c>
       <c r="Z20" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AA20" t="s">
         <v>103</v>
@@ -2861,7 +2861,7 @@
         <v>103</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N21" t="s">
         <v>103</v>
@@ -2971,19 +2971,19 @@
         <v>117</v>
       </c>
       <c r="Q22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="S22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="U22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="V22" t="s">
         <v>117</v>
@@ -2995,16 +2995,16 @@
         <v>101</v>
       </c>
       <c r="Y22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="Z22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA22" t="s">
         <v>113</v>
       </c>
       <c r="AB22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AC22" t="s">
         <v>117</v>
@@ -3048,16 +3048,16 @@
         <v>117</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
         <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N23" t="s">
         <v>113</v>
@@ -3069,19 +3069,19 @@
         <v>117</v>
       </c>
       <c r="Q23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="T23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V23" t="s">
         <v>117</v>
@@ -3090,7 +3090,7 @@
         <v>117</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y23" t="s">
         <v>113</v>
@@ -3099,7 +3099,7 @@
         <v>104</v>
       </c>
       <c r="AA23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AB23" t="s">
         <v>101</v>
@@ -3176,7 +3176,7 @@
         <v>103</v>
       </c>
       <c r="T24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="U24" t="s">
         <v>103</v>
@@ -3226,10 +3226,10 @@
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -3327,7 +3327,7 @@
         <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>103</v>
       </c>
       <c r="R26" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S26" t="s">
         <v>102</v>
@@ -3440,7 +3440,7 @@
         <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s">
         <v>105</v>
@@ -3452,7 +3452,7 @@
         <v>105</v>
       </c>
       <c r="N27" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="O27" t="s">
         <v>117</v>
@@ -3485,13 +3485,13 @@
         <v>105</v>
       </c>
       <c r="Y27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z27" t="s">
         <v>105</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB27" t="s">
         <v>116</v>
@@ -3517,7 +3517,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
         <v>112</v>
@@ -3538,7 +3538,7 @@
         <v>117</v>
       </c>
       <